--- a/data/accumulated/ci_acumulado.xlsx
+++ b/data/accumulated/ci_acumulado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6713,6 +6713,6228 @@
         <v>0</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>11</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>60</v>
+      </c>
+      <c r="G122" t="n">
+        <v>59</v>
+      </c>
+      <c r="H122" t="n">
+        <v>63</v>
+      </c>
+      <c r="I122" t="n">
+        <v>53</v>
+      </c>
+      <c r="J122" t="n">
+        <v>53</v>
+      </c>
+      <c r="K122" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="L122" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-5.75</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-0.0978723404255319</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>11</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5</v>
+      </c>
+      <c r="K123" t="n">
+        <v>4</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>11</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H124" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I124" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K124" t="n">
+        <v>5.459999999999999</v>
+      </c>
+      <c r="L124" t="n">
+        <v>5.525</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-0.3250000000000002</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.0588235294117647</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>11</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="G125" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="H125" t="n">
+        <v>200</v>
+      </c>
+      <c r="I125" t="n">
+        <v>200</v>
+      </c>
+      <c r="J125" t="n">
+        <v>248.8</v>
+      </c>
+      <c r="K125" t="n">
+        <v>190.12</v>
+      </c>
+      <c r="L125" t="n">
+        <v>187.65</v>
+      </c>
+      <c r="M125" t="n">
+        <v>12.34999999999999</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.0658140154543032</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>11</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>11</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H127" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I127" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J127" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K127" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L127" t="n">
+        <v>5375</v>
+      </c>
+      <c r="M127" t="n">
+        <v>625</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.1162790697674418</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>11</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>11</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>10500</v>
+      </c>
+      <c r="H129" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I129" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J129" t="n">
+        <v>11000</v>
+      </c>
+      <c r="K129" t="n">
+        <v>13300</v>
+      </c>
+      <c r="L129" t="n">
+        <v>12875</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2125</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.1650485436893204</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>11</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>11</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>70</v>
+      </c>
+      <c r="G131" t="n">
+        <v>70</v>
+      </c>
+      <c r="H131" t="n">
+        <v>70</v>
+      </c>
+      <c r="I131" t="n">
+        <v>70</v>
+      </c>
+      <c r="J131" t="n">
+        <v>70</v>
+      </c>
+      <c r="K131" t="n">
+        <v>70</v>
+      </c>
+      <c r="L131" t="n">
+        <v>70</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>11</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1971</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1434</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1467</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2610</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2583</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1863.75</v>
+      </c>
+      <c r="M132" t="n">
+        <v>746.25</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.4004024144869215</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>11</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>4</v>
+      </c>
+      <c r="G133" t="n">
+        <v>22</v>
+      </c>
+      <c r="H133" t="n">
+        <v>22</v>
+      </c>
+      <c r="I133" t="n">
+        <v>39</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-87</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>-9.75</v>
+      </c>
+      <c r="M133" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>11</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>1975</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1456</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1489</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2649</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2496</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1854</v>
+      </c>
+      <c r="M134" t="n">
+        <v>795</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.4288025889967637</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>11</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0.1962</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.1447</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.1479</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.2632</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.1842</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.0789999999999999</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.4288816503800216</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>11</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>85</v>
+      </c>
+      <c r="G136" t="n">
+        <v>89</v>
+      </c>
+      <c r="H136" t="n">
+        <v>88</v>
+      </c>
+      <c r="I136" t="n">
+        <v>85</v>
+      </c>
+      <c r="J136" t="n">
+        <v>74</v>
+      </c>
+      <c r="K136" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>84</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.0119047619047619</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>11</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H137" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I137" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K137" t="n">
+        <v>5.459999999999999</v>
+      </c>
+      <c r="L137" t="n">
+        <v>5.525</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-0.3250000000000002</v>
+      </c>
+      <c r="N137" t="n">
+        <v>-0.0588235294117647</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>11</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="G138" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="H138" t="n">
+        <v>200</v>
+      </c>
+      <c r="I138" t="n">
+        <v>200</v>
+      </c>
+      <c r="J138" t="n">
+        <v>248.8</v>
+      </c>
+      <c r="K138" t="n">
+        <v>190.12</v>
+      </c>
+      <c r="L138" t="n">
+        <v>187.65</v>
+      </c>
+      <c r="M138" t="n">
+        <v>12.34999999999999</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.0658140154543032</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>11</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>11</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H140" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I140" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J140" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K140" t="n">
+        <v>7200</v>
+      </c>
+      <c r="L140" t="n">
+        <v>7125</v>
+      </c>
+      <c r="M140" t="n">
+        <v>375</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.0526315789473684</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>11</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>10500</v>
+      </c>
+      <c r="H141" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I141" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J141" t="n">
+        <v>11000</v>
+      </c>
+      <c r="K141" t="n">
+        <v>13300</v>
+      </c>
+      <c r="L141" t="n">
+        <v>12875</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2125</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.1650485436893204</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>11</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>11</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>70</v>
+      </c>
+      <c r="G143" t="n">
+        <v>70</v>
+      </c>
+      <c r="H143" t="n">
+        <v>70</v>
+      </c>
+      <c r="I143" t="n">
+        <v>70</v>
+      </c>
+      <c r="J143" t="n">
+        <v>70</v>
+      </c>
+      <c r="K143" t="n">
+        <v>70</v>
+      </c>
+      <c r="L143" t="n">
+        <v>70</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>11</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>474</v>
+      </c>
+      <c r="G144" t="n">
+        <v>279</v>
+      </c>
+      <c r="H144" t="n">
+        <v>308</v>
+      </c>
+      <c r="I144" t="n">
+        <v>453</v>
+      </c>
+      <c r="J144" t="n">
+        <v>422</v>
+      </c>
+      <c r="K144" t="n">
+        <v>387.2</v>
+      </c>
+      <c r="L144" t="n">
+        <v>370.75</v>
+      </c>
+      <c r="M144" t="n">
+        <v>82.25</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.2218476062036412</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>11</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>474</v>
+      </c>
+      <c r="G145" t="n">
+        <v>279</v>
+      </c>
+      <c r="H145" t="n">
+        <v>308</v>
+      </c>
+      <c r="I145" t="n">
+        <v>453</v>
+      </c>
+      <c r="J145" t="n">
+        <v>422</v>
+      </c>
+      <c r="K145" t="n">
+        <v>387.2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>370.75</v>
+      </c>
+      <c r="M145" t="n">
+        <v>82.25</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.2218476062036412</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>11</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0.2448</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.1441</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.1591</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.1915</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.2219321148825065</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>11</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>49</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L147" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-12.25</v>
+      </c>
+      <c r="N147" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>11</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="N148" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>11</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>869</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>173.8</v>
+      </c>
+      <c r="L149" t="n">
+        <v>217.25</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-217.25</v>
+      </c>
+      <c r="N149" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>11</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>11</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>11</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>60</v>
+      </c>
+      <c r="G152" t="n">
+        <v>61</v>
+      </c>
+      <c r="H152" t="n">
+        <v>63</v>
+      </c>
+      <c r="I152" t="n">
+        <v>58.94</v>
+      </c>
+      <c r="J152" t="n">
+        <v>57</v>
+      </c>
+      <c r="K152" t="n">
+        <v>59.988</v>
+      </c>
+      <c r="L152" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-1.310000000000002</v>
+      </c>
+      <c r="N152" t="n">
+        <v>-0.0217427385892116</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>11</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>5</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>4</v>
+      </c>
+      <c r="J153" t="n">
+        <v>5</v>
+      </c>
+      <c r="K153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>11</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5</v>
+      </c>
+      <c r="H154" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J154" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K154" t="n">
+        <v>5</v>
+      </c>
+      <c r="L154" t="n">
+        <v>5.074999999999999</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-0.3749999999999991</v>
+      </c>
+      <c r="N154" t="n">
+        <v>-0.0738916256157633</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>11</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>200</v>
+      </c>
+      <c r="G155" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="H155" t="n">
+        <v>200</v>
+      </c>
+      <c r="I155" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="J155" t="n">
+        <v>200</v>
+      </c>
+      <c r="K155" t="n">
+        <v>180.34</v>
+      </c>
+      <c r="L155" t="n">
+        <v>187.575</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-36.17499999999998</v>
+      </c>
+      <c r="N155" t="n">
+        <v>-0.1928561908569904</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>11</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>11</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H157" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J157" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K157" t="n">
+        <v>5100</v>
+      </c>
+      <c r="L157" t="n">
+        <v>5375</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-1375</v>
+      </c>
+      <c r="N157" t="n">
+        <v>-0.2558139534883721</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>11</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>11</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>9500</v>
+      </c>
+      <c r="H159" t="n">
+        <v>11000</v>
+      </c>
+      <c r="I159" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J159" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K159" t="n">
+        <v>11700</v>
+      </c>
+      <c r="L159" t="n">
+        <v>12125</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-2125</v>
+      </c>
+      <c r="N159" t="n">
+        <v>-0.1752577319587628</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>11</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>11</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>70</v>
+      </c>
+      <c r="G161" t="n">
+        <v>70</v>
+      </c>
+      <c r="H161" t="n">
+        <v>70</v>
+      </c>
+      <c r="I161" t="n">
+        <v>70</v>
+      </c>
+      <c r="J161" t="n">
+        <v>70</v>
+      </c>
+      <c r="K161" t="n">
+        <v>70</v>
+      </c>
+      <c r="L161" t="n">
+        <v>70</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>11</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>2273</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1406</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1581</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1358</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1957</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1715</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1804.25</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-446.25</v>
+      </c>
+      <c r="N162" t="n">
+        <v>-0.2473326867119301</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>11</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>-296</v>
+      </c>
+      <c r="G163" t="n">
+        <v>285</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-121</v>
+      </c>
+      <c r="I163" t="n">
+        <v>275</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-143</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>-68.75</v>
+      </c>
+      <c r="M163" t="n">
+        <v>343.75</v>
+      </c>
+      <c r="N163" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>11</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>1977</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1691</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1633</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1814</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1715</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1735.5</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-102.5</v>
+      </c>
+      <c r="N164" t="n">
+        <v>-0.059060789397868</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>11</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0.2306</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.1972</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.1703</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.1904</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.2115</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.2024</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-0.0119999999999999</v>
+      </c>
+      <c r="N165" t="n">
+        <v>-0.059288537549407</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>11</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>85</v>
+      </c>
+      <c r="G166" t="n">
+        <v>89</v>
+      </c>
+      <c r="H166" t="n">
+        <v>88</v>
+      </c>
+      <c r="I166" t="n">
+        <v>90.94</v>
+      </c>
+      <c r="J166" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="K166" t="n">
+        <v>86.08799999999999</v>
+      </c>
+      <c r="L166" t="n">
+        <v>84.875</v>
+      </c>
+      <c r="M166" t="n">
+        <v>6.064999999999998</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.07145802650957279</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>11</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5</v>
+      </c>
+      <c r="H167" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I167" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J167" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K167" t="n">
+        <v>5</v>
+      </c>
+      <c r="L167" t="n">
+        <v>5.074999999999999</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-0.3749999999999991</v>
+      </c>
+      <c r="N167" t="n">
+        <v>-0.0738916256157633</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>11</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>200</v>
+      </c>
+      <c r="G168" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="H168" t="n">
+        <v>200</v>
+      </c>
+      <c r="I168" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="J168" t="n">
+        <v>200</v>
+      </c>
+      <c r="K168" t="n">
+        <v>180.34</v>
+      </c>
+      <c r="L168" t="n">
+        <v>187.575</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-36.17499999999998</v>
+      </c>
+      <c r="N168" t="n">
+        <v>-0.1928561908569904</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>11</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N169" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>11</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H170" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I170" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J170" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K170" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L170" t="n">
+        <v>5875</v>
+      </c>
+      <c r="M170" t="n">
+        <v>-1875</v>
+      </c>
+      <c r="N170" t="n">
+        <v>-0.3191489361702128</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>11</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>9500</v>
+      </c>
+      <c r="H171" t="n">
+        <v>11000</v>
+      </c>
+      <c r="I171" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J171" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K171" t="n">
+        <v>11700</v>
+      </c>
+      <c r="L171" t="n">
+        <v>12125</v>
+      </c>
+      <c r="M171" t="n">
+        <v>-2125</v>
+      </c>
+      <c r="N171" t="n">
+        <v>-0.1752577319587628</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>11</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>11</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>70</v>
+      </c>
+      <c r="G173" t="n">
+        <v>70</v>
+      </c>
+      <c r="H173" t="n">
+        <v>70</v>
+      </c>
+      <c r="I173" t="n">
+        <v>70</v>
+      </c>
+      <c r="J173" t="n">
+        <v>70</v>
+      </c>
+      <c r="K173" t="n">
+        <v>70</v>
+      </c>
+      <c r="L173" t="n">
+        <v>70</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>11</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>508</v>
+      </c>
+      <c r="G174" t="n">
+        <v>293</v>
+      </c>
+      <c r="H174" t="n">
+        <v>308</v>
+      </c>
+      <c r="I174" t="n">
+        <v>180</v>
+      </c>
+      <c r="J174" t="n">
+        <v>347</v>
+      </c>
+      <c r="K174" t="n">
+        <v>327.2</v>
+      </c>
+      <c r="L174" t="n">
+        <v>364</v>
+      </c>
+      <c r="M174" t="n">
+        <v>-184</v>
+      </c>
+      <c r="N174" t="n">
+        <v>-0.5054945054945055</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>11</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>508</v>
+      </c>
+      <c r="G175" t="n">
+        <v>293</v>
+      </c>
+      <c r="H175" t="n">
+        <v>308</v>
+      </c>
+      <c r="I175" t="n">
+        <v>180</v>
+      </c>
+      <c r="J175" t="n">
+        <v>347</v>
+      </c>
+      <c r="K175" t="n">
+        <v>327.2</v>
+      </c>
+      <c r="L175" t="n">
+        <v>364</v>
+      </c>
+      <c r="M175" t="n">
+        <v>-184</v>
+      </c>
+      <c r="N175" t="n">
+        <v>-0.5054945054945055</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>11</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.3105</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.1791</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.1883</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.2121</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.2225</v>
+      </c>
+      <c r="M176" t="n">
+        <v>-0.1125</v>
+      </c>
+      <c r="N176" t="n">
+        <v>-0.5056179775280899</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>11</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>37</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>49</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="L177" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="M177" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="N177" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>11</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="M178" t="n">
+        <v>-1.625</v>
+      </c>
+      <c r="N178" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>11</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>275</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>956</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>246.2</v>
+      </c>
+      <c r="L179" t="n">
+        <v>307.75</v>
+      </c>
+      <c r="M179" t="n">
+        <v>-307.75</v>
+      </c>
+      <c r="N179" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>11</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>275</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>835</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>222</v>
+      </c>
+      <c r="L180" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="M180" t="n">
+        <v>-277.5</v>
+      </c>
+      <c r="N180" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>11</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M181" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N181" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>11</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>59</v>
+      </c>
+      <c r="G182" t="n">
+        <v>57</v>
+      </c>
+      <c r="H182" t="n">
+        <v>63</v>
+      </c>
+      <c r="I182" t="n">
+        <v>53</v>
+      </c>
+      <c r="J182" t="n">
+        <v>52</v>
+      </c>
+      <c r="K182" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="L182" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="M182" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="N182" t="n">
+        <v>-0.0822510822510822</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>11</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>5</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>5</v>
+      </c>
+      <c r="J183" t="n">
+        <v>5</v>
+      </c>
+      <c r="K183" t="n">
+        <v>4</v>
+      </c>
+      <c r="L183" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>11</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5</v>
+      </c>
+      <c r="H184" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I184" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J184" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K184" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="L184" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>-0.3999999999999994</v>
+      </c>
+      <c r="N184" t="n">
+        <v>-0.0784313725490195</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>11</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>200</v>
+      </c>
+      <c r="G185" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="H185" t="n">
+        <v>200</v>
+      </c>
+      <c r="I185" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>200</v>
+      </c>
+      <c r="K185" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="L185" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="M185" t="n">
+        <v>-36.5</v>
+      </c>
+      <c r="N185" t="n">
+        <v>-0.1945628997867804</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>11</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>2</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2</v>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+      <c r="I186" t="n">
+        <v>2</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M186" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N186" t="n">
+        <v>-0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>11</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H187" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I187" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J187" t="n">
+        <v>3750</v>
+      </c>
+      <c r="K187" t="n">
+        <v>3850</v>
+      </c>
+      <c r="L187" t="n">
+        <v>3812.5</v>
+      </c>
+      <c r="M187" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.0491803278688524</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>11</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>700</v>
+      </c>
+      <c r="G188" t="n">
+        <v>700</v>
+      </c>
+      <c r="H188" t="n">
+        <v>700</v>
+      </c>
+      <c r="I188" t="n">
+        <v>700</v>
+      </c>
+      <c r="J188" t="n">
+        <v>700</v>
+      </c>
+      <c r="K188" t="n">
+        <v>700</v>
+      </c>
+      <c r="L188" t="n">
+        <v>700</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>11</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G189" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H189" t="n">
+        <v>9000</v>
+      </c>
+      <c r="I189" t="n">
+        <v>12000</v>
+      </c>
+      <c r="J189" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K189" t="n">
+        <v>9800</v>
+      </c>
+      <c r="L189" t="n">
+        <v>9250</v>
+      </c>
+      <c r="M189" t="n">
+        <v>2750</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.2972972972972973</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>11</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>11</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>70</v>
+      </c>
+      <c r="G191" t="n">
+        <v>70</v>
+      </c>
+      <c r="H191" t="n">
+        <v>70</v>
+      </c>
+      <c r="I191" t="n">
+        <v>70</v>
+      </c>
+      <c r="J191" t="n">
+        <v>70</v>
+      </c>
+      <c r="K191" t="n">
+        <v>70</v>
+      </c>
+      <c r="L191" t="n">
+        <v>70</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>11</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>1557</v>
+      </c>
+      <c r="G192" t="n">
+        <v>940</v>
+      </c>
+      <c r="H192" t="n">
+        <v>941</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1448</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1635</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1304.2</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1268.25</v>
+      </c>
+      <c r="M192" t="n">
+        <v>179.75</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.1417307313226887</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>11</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G193" t="n">
+        <v>77</v>
+      </c>
+      <c r="H193" t="n">
+        <v>77</v>
+      </c>
+      <c r="I193" t="n">
+        <v>119</v>
+      </c>
+      <c r="J193" t="n">
+        <v>-171</v>
+      </c>
+      <c r="K193" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L193" t="n">
+        <v>-30</v>
+      </c>
+      <c r="M193" t="n">
+        <v>149</v>
+      </c>
+      <c r="N193" t="n">
+        <v>-4.966666666666667</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>11</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>1454</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1017</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1018</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1567</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1464</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1304</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1238.25</v>
+      </c>
+      <c r="M194" t="n">
+        <v>328.75</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.2654956591964466</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>11</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.1561</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.2403</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.2245</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.19998</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.1899</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.0504</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.2654028436018957</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>11</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>84</v>
+      </c>
+      <c r="G196" t="n">
+        <v>89</v>
+      </c>
+      <c r="H196" t="n">
+        <v>88</v>
+      </c>
+      <c r="I196" t="n">
+        <v>85</v>
+      </c>
+      <c r="J196" t="n">
+        <v>73</v>
+      </c>
+      <c r="K196" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="L196" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.0179640718562874</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>11</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G197" t="n">
+        <v>5</v>
+      </c>
+      <c r="H197" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I197" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J197" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K197" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="L197" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>-0.3999999999999994</v>
+      </c>
+      <c r="N197" t="n">
+        <v>-0.0784313725490195</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>11</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>200</v>
+      </c>
+      <c r="G198" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="H198" t="n">
+        <v>200</v>
+      </c>
+      <c r="I198" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>200</v>
+      </c>
+      <c r="K198" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="L198" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="M198" t="n">
+        <v>-36.5</v>
+      </c>
+      <c r="N198" t="n">
+        <v>-0.1945628997867804</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>11</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>11</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G200" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H200" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I200" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J200" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K200" t="n">
+        <v>4700</v>
+      </c>
+      <c r="L200" t="n">
+        <v>4375</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1625</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.3714285714285714</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>11</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H201" t="n">
+        <v>9000</v>
+      </c>
+      <c r="I201" t="n">
+        <v>12000</v>
+      </c>
+      <c r="J201" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K201" t="n">
+        <v>9800</v>
+      </c>
+      <c r="L201" t="n">
+        <v>9250</v>
+      </c>
+      <c r="M201" t="n">
+        <v>2750</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.2972972972972973</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>11</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>11</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>70</v>
+      </c>
+      <c r="G203" t="n">
+        <v>70</v>
+      </c>
+      <c r="H203" t="n">
+        <v>70</v>
+      </c>
+      <c r="I203" t="n">
+        <v>70</v>
+      </c>
+      <c r="J203" t="n">
+        <v>70</v>
+      </c>
+      <c r="K203" t="n">
+        <v>70</v>
+      </c>
+      <c r="L203" t="n">
+        <v>70</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>11</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>336</v>
+      </c>
+      <c r="G204" t="n">
+        <v>163</v>
+      </c>
+      <c r="H204" t="n">
+        <v>194</v>
+      </c>
+      <c r="I204" t="n">
+        <v>267</v>
+      </c>
+      <c r="J204" t="n">
+        <v>270</v>
+      </c>
+      <c r="K204" t="n">
+        <v>246</v>
+      </c>
+      <c r="L204" t="n">
+        <v>240.75</v>
+      </c>
+      <c r="M204" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.1090342679127725</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>11</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>336</v>
+      </c>
+      <c r="G205" t="n">
+        <v>163</v>
+      </c>
+      <c r="H205" t="n">
+        <v>194</v>
+      </c>
+      <c r="I205" t="n">
+        <v>267</v>
+      </c>
+      <c r="J205" t="n">
+        <v>270</v>
+      </c>
+      <c r="K205" t="n">
+        <v>246</v>
+      </c>
+      <c r="L205" t="n">
+        <v>240.75</v>
+      </c>
+      <c r="M205" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.1090342679127725</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>11</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0.2732</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.1325</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.1577</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.2171</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.2195</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0.195725</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.0213749999999999</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.1092093498531101</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>11</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>49</v>
+      </c>
+      <c r="I207" t="n">
+        <v>32</v>
+      </c>
+      <c r="J207" t="n">
+        <v>31</v>
+      </c>
+      <c r="K207" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="L207" t="n">
+        <v>20</v>
+      </c>
+      <c r="M207" t="n">
+        <v>12</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>11</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>11</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>478</v>
+      </c>
+      <c r="I209" t="n">
+        <v>318</v>
+      </c>
+      <c r="J209" t="n">
+        <v>384</v>
+      </c>
+      <c r="K209" t="n">
+        <v>236</v>
+      </c>
+      <c r="L209" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="M209" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.4756380510440835</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>11</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>318</v>
+      </c>
+      <c r="J210" t="n">
+        <v>384</v>
+      </c>
+      <c r="K210" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="L210" t="n">
+        <v>96</v>
+      </c>
+      <c r="M210" t="n">
+        <v>222</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2.3125</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>11</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0.1242</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="N211" t="n">
+        <v>2.305882352941176</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>11</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>59</v>
+      </c>
+      <c r="G212" t="n">
+        <v>61</v>
+      </c>
+      <c r="H212" t="n">
+        <v>64</v>
+      </c>
+      <c r="I212" t="n">
+        <v>60.74</v>
+      </c>
+      <c r="J212" t="n">
+        <v>57</v>
+      </c>
+      <c r="K212" t="n">
+        <v>60.348</v>
+      </c>
+      <c r="L212" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0.490000000000002</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.0081327800829875</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>11</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>5</v>
+      </c>
+      <c r="G213" t="n">
+        <v>3</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>5</v>
+      </c>
+      <c r="J213" t="n">
+        <v>5</v>
+      </c>
+      <c r="K213" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>11</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G214" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I214" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K214" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="L214" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M214" t="n">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="N214" t="n">
+        <v>-0.0545454545454545</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>11</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>158</v>
+      </c>
+      <c r="G215" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="H215" t="n">
+        <v>200</v>
+      </c>
+      <c r="I215" t="n">
+        <v>200</v>
+      </c>
+      <c r="J215" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="K215" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="L215" t="n">
+        <v>188.25</v>
+      </c>
+      <c r="M215" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.0624169986719787</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>11</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>2</v>
+      </c>
+      <c r="G216" t="n">
+        <v>3</v>
+      </c>
+      <c r="H216" t="n">
+        <v>3</v>
+      </c>
+      <c r="I216" t="n">
+        <v>3</v>
+      </c>
+      <c r="J216" t="n">
+        <v>3</v>
+      </c>
+      <c r="K216" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>11</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H217" t="n">
+        <v>2750</v>
+      </c>
+      <c r="I217" t="n">
+        <v>3250</v>
+      </c>
+      <c r="J217" t="n">
+        <v>3750</v>
+      </c>
+      <c r="K217" t="n">
+        <v>3450</v>
+      </c>
+      <c r="L217" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M217" t="n">
+        <v>-250</v>
+      </c>
+      <c r="N217" t="n">
+        <v>-0.0714285714285714</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>11</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>700</v>
+      </c>
+      <c r="G218" t="n">
+        <v>700</v>
+      </c>
+      <c r="H218" t="n">
+        <v>700</v>
+      </c>
+      <c r="I218" t="n">
+        <v>700</v>
+      </c>
+      <c r="J218" t="n">
+        <v>700</v>
+      </c>
+      <c r="K218" t="n">
+        <v>700</v>
+      </c>
+      <c r="L218" t="n">
+        <v>700</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>11</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>7500</v>
+      </c>
+      <c r="I219" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J219" t="n">
+        <v>8500</v>
+      </c>
+      <c r="K219" t="n">
+        <v>9400</v>
+      </c>
+      <c r="L219" t="n">
+        <v>9250</v>
+      </c>
+      <c r="M219" t="n">
+        <v>750</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.081081081081081</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>11</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>11</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>70</v>
+      </c>
+      <c r="G221" t="n">
+        <v>70</v>
+      </c>
+      <c r="H221" t="n">
+        <v>70</v>
+      </c>
+      <c r="I221" t="n">
+        <v>70</v>
+      </c>
+      <c r="J221" t="n">
+        <v>70</v>
+      </c>
+      <c r="K221" t="n">
+        <v>70</v>
+      </c>
+      <c r="L221" t="n">
+        <v>70</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>11</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>1720</v>
+      </c>
+      <c r="G222" t="n">
+        <v>866</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1013</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1746</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1349</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1336.25</v>
+      </c>
+      <c r="M222" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.0477081384471468</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>11</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>-423</v>
+      </c>
+      <c r="G223" t="n">
+        <v>432</v>
+      </c>
+      <c r="H223" t="n">
+        <v>-303</v>
+      </c>
+      <c r="I223" t="n">
+        <v>491</v>
+      </c>
+      <c r="J223" t="n">
+        <v>-197</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>-122.75</v>
+      </c>
+      <c r="M223" t="n">
+        <v>613.75</v>
+      </c>
+      <c r="N223" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>11</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>1297</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1298</v>
+      </c>
+      <c r="H224" t="n">
+        <v>710</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1891</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1549</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1349</v>
+      </c>
+      <c r="L224" t="n">
+        <v>1213.5</v>
+      </c>
+      <c r="M224" t="n">
+        <v>677.5</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.5583024309847548</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>11</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.1923</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.1924</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.1053</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.2804</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.2297</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0.20002</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.179925</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.1004749999999999</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.558427122412116</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>11</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>84</v>
+      </c>
+      <c r="G226" t="n">
+        <v>89</v>
+      </c>
+      <c r="H226" t="n">
+        <v>88</v>
+      </c>
+      <c r="I226" t="n">
+        <v>92.73999999999999</v>
+      </c>
+      <c r="J226" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="K226" t="n">
+        <v>86.248</v>
+      </c>
+      <c r="L226" t="n">
+        <v>84.625</v>
+      </c>
+      <c r="M226" t="n">
+        <v>8.114999999999995</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.0958936484490398</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>11</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G227" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H227" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I227" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J227" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K227" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="L227" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M227" t="n">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="N227" t="n">
+        <v>-0.0545454545454545</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>11</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>158</v>
+      </c>
+      <c r="G228" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>200</v>
+      </c>
+      <c r="I228" t="n">
+        <v>200</v>
+      </c>
+      <c r="J228" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="K228" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="L228" t="n">
+        <v>188.25</v>
+      </c>
+      <c r="M228" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.0624169986719787</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>11</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>11</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H230" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I230" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J230" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K230" t="n">
+        <v>3900</v>
+      </c>
+      <c r="L230" t="n">
+        <v>3375</v>
+      </c>
+      <c r="M230" t="n">
+        <v>2625</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>11</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G231" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H231" t="n">
+        <v>7500</v>
+      </c>
+      <c r="I231" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J231" t="n">
+        <v>8500</v>
+      </c>
+      <c r="K231" t="n">
+        <v>9400</v>
+      </c>
+      <c r="L231" t="n">
+        <v>9250</v>
+      </c>
+      <c r="M231" t="n">
+        <v>750</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.081081081081081</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>11</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>11</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>70</v>
+      </c>
+      <c r="G233" t="n">
+        <v>70</v>
+      </c>
+      <c r="H233" t="n">
+        <v>70</v>
+      </c>
+      <c r="I233" t="n">
+        <v>70</v>
+      </c>
+      <c r="J233" t="n">
+        <v>70</v>
+      </c>
+      <c r="K233" t="n">
+        <v>70</v>
+      </c>
+      <c r="L233" t="n">
+        <v>70</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>11</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>264</v>
+      </c>
+      <c r="G234" t="n">
+        <v>120</v>
+      </c>
+      <c r="H234" t="n">
+        <v>223</v>
+      </c>
+      <c r="I234" t="n">
+        <v>303</v>
+      </c>
+      <c r="J234" t="n">
+        <v>345</v>
+      </c>
+      <c r="K234" t="n">
+        <v>251</v>
+      </c>
+      <c r="L234" t="n">
+        <v>238</v>
+      </c>
+      <c r="M234" t="n">
+        <v>65</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.2731092436974789</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>11</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>264</v>
+      </c>
+      <c r="G235" t="n">
+        <v>120</v>
+      </c>
+      <c r="H235" t="n">
+        <v>223</v>
+      </c>
+      <c r="I235" t="n">
+        <v>303</v>
+      </c>
+      <c r="J235" t="n">
+        <v>345</v>
+      </c>
+      <c r="K235" t="n">
+        <v>251</v>
+      </c>
+      <c r="L235" t="n">
+        <v>238</v>
+      </c>
+      <c r="M235" t="n">
+        <v>65</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.2731092436974789</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>11</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0.2104</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.0956</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.1777</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.2414</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.2749</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0.1896499999999999</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.05175</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.2728710783021356</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>11</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>49</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L237" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="M237" t="n">
+        <v>-12.25</v>
+      </c>
+      <c r="N237" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>11</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="M238" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="N238" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>11</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="n">
+        <v>772</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L239" t="n">
+        <v>193</v>
+      </c>
+      <c r="M239" t="n">
+        <v>-193</v>
+      </c>
+      <c r="N239" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>11</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>772</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L240" t="n">
+        <v>193</v>
+      </c>
+      <c r="M240" t="n">
+        <v>-193</v>
+      </c>
+      <c r="N240" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>11</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0.1366</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0.17075</v>
+      </c>
+      <c r="M241" t="n">
+        <v>-0.17075</v>
+      </c>
+      <c r="N241" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/accumulated/ci_acumulado.xlsx
+++ b/data/accumulated/ci_acumulado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N241"/>
+  <dimension ref="A1:N361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12935,6 +12935,6246 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>12</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>60</v>
+      </c>
+      <c r="G242" t="n">
+        <v>63</v>
+      </c>
+      <c r="H242" t="n">
+        <v>62</v>
+      </c>
+      <c r="I242" t="n">
+        <v>59</v>
+      </c>
+      <c r="J242" t="n">
+        <v>68</v>
+      </c>
+      <c r="K242" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="L242" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="M242" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="N242" t="n">
+        <v>-0.06719367588932799</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>12</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>5</v>
+      </c>
+      <c r="G243" t="n">
+        <v>4</v>
+      </c>
+      <c r="H243" t="n">
+        <v>3</v>
+      </c>
+      <c r="I243" t="n">
+        <v>5</v>
+      </c>
+      <c r="J243" t="n">
+        <v>5</v>
+      </c>
+      <c r="K243" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L243" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>12</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>5</v>
+      </c>
+      <c r="G244" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H244" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I244" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J244" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K244" t="n">
+        <v>5.540000000000001</v>
+      </c>
+      <c r="L244" t="n">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="M244" t="n">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="N244" t="n">
+        <v>-0.0535714285714286</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>12</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>198.4</v>
+      </c>
+      <c r="G245" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="H245" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="I245" t="n">
+        <v>200</v>
+      </c>
+      <c r="J245" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="K245" t="n">
+        <v>227.52</v>
+      </c>
+      <c r="L245" t="n">
+        <v>234.4</v>
+      </c>
+      <c r="M245" t="n">
+        <v>-34.40000000000001</v>
+      </c>
+      <c r="N245" t="n">
+        <v>-0.1467576791808874</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>12</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>2</v>
+      </c>
+      <c r="G246" t="n">
+        <v>2</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2</v>
+      </c>
+      <c r="I246" t="n">
+        <v>2</v>
+      </c>
+      <c r="J246" t="n">
+        <v>2</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2</v>
+      </c>
+      <c r="L246" t="n">
+        <v>2</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>12</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G247" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H247" t="n">
+        <v>7000</v>
+      </c>
+      <c r="I247" t="n">
+        <v>7000</v>
+      </c>
+      <c r="J247" t="n">
+        <v>6500</v>
+      </c>
+      <c r="K247" t="n">
+        <v>5900</v>
+      </c>
+      <c r="L247" t="n">
+        <v>5625</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1375</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.2444444444444444</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>12</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>2875</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1038</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1279</v>
+      </c>
+      <c r="I248" t="n">
+        <v>3335</v>
+      </c>
+      <c r="J248" t="n">
+        <v>3331</v>
+      </c>
+      <c r="K248" t="n">
+        <v>2371.6</v>
+      </c>
+      <c r="L248" t="n">
+        <v>2130.75</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1204.25</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.5651765810160742</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>12</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G249" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H249" t="n">
+        <v>14000</v>
+      </c>
+      <c r="I249" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J249" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K249" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L249" t="n">
+        <v>11875</v>
+      </c>
+      <c r="M249" t="n">
+        <v>3125</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>12</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>85</v>
+      </c>
+      <c r="G250" t="n">
+        <v>110</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>175</v>
+      </c>
+      <c r="J250" t="n">
+        <v>60</v>
+      </c>
+      <c r="K250" t="n">
+        <v>86</v>
+      </c>
+      <c r="L250" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="M250" t="n">
+        <v>111.25</v>
+      </c>
+      <c r="N250" t="n">
+        <v>1.745098039215686</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>12</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>70</v>
+      </c>
+      <c r="G251" t="n">
+        <v>60</v>
+      </c>
+      <c r="H251" t="n">
+        <v>71</v>
+      </c>
+      <c r="I251" t="n">
+        <v>72</v>
+      </c>
+      <c r="J251" t="n">
+        <v>81</v>
+      </c>
+      <c r="K251" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="L251" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="M251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.0212765957446808</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>12</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>2434</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1209</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1503</v>
+      </c>
+      <c r="I252" t="n">
+        <v>2877</v>
+      </c>
+      <c r="J252" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K252" t="n">
+        <v>2046</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1838.25</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1038.75</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.5650754793961649</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>12</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>-479</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-60</v>
+      </c>
+      <c r="H253" t="n">
+        <v>125</v>
+      </c>
+      <c r="I253" t="n">
+        <v>284</v>
+      </c>
+      <c r="J253" t="n">
+        <v>69</v>
+      </c>
+      <c r="K253" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="L253" t="n">
+        <v>-86.25</v>
+      </c>
+      <c r="M253" t="n">
+        <v>370.25</v>
+      </c>
+      <c r="N253" t="n">
+        <v>-4.292753623188406</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>12</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>1955</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1149</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1628</v>
+      </c>
+      <c r="I254" t="n">
+        <v>3161</v>
+      </c>
+      <c r="J254" t="n">
+        <v>2276</v>
+      </c>
+      <c r="K254" t="n">
+        <v>2033.8</v>
+      </c>
+      <c r="L254" t="n">
+        <v>1752</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1409</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.8042237442922374</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>12</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>0.1923</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.1601</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.3108</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.2238</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0.1723</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.1385</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.8038305281485781</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>12</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>85</v>
+      </c>
+      <c r="G256" t="n">
+        <v>89</v>
+      </c>
+      <c r="H256" t="n">
+        <v>87</v>
+      </c>
+      <c r="I256" t="n">
+        <v>95</v>
+      </c>
+      <c r="J256" t="n">
+        <v>95</v>
+      </c>
+      <c r="K256" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="L256" t="n">
+        <v>89</v>
+      </c>
+      <c r="M256" t="n">
+        <v>6</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.06741573033707859</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>12</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>5</v>
+      </c>
+      <c r="G257" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H257" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I257" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J257" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K257" t="n">
+        <v>5.540000000000001</v>
+      </c>
+      <c r="L257" t="n">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="M257" t="n">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="N257" t="n">
+        <v>-0.0535714285714286</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>12</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>198.4</v>
+      </c>
+      <c r="G258" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="H258" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="I258" t="n">
+        <v>200</v>
+      </c>
+      <c r="J258" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="K258" t="n">
+        <v>227.52</v>
+      </c>
+      <c r="L258" t="n">
+        <v>234.4</v>
+      </c>
+      <c r="M258" t="n">
+        <v>-34.40000000000001</v>
+      </c>
+      <c r="N258" t="n">
+        <v>-0.1467576791808874</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>12</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>1</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>12</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G260" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H260" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I260" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J260" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K260" t="n">
+        <v>7200</v>
+      </c>
+      <c r="L260" t="n">
+        <v>7125</v>
+      </c>
+      <c r="M260" t="n">
+        <v>375</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.0526315789473684</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>12</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G261" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H261" t="n">
+        <v>14000</v>
+      </c>
+      <c r="I261" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J261" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K261" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L261" t="n">
+        <v>11875</v>
+      </c>
+      <c r="M261" t="n">
+        <v>3125</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>12</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>85</v>
+      </c>
+      <c r="G262" t="n">
+        <v>110</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>175</v>
+      </c>
+      <c r="J262" t="n">
+        <v>60</v>
+      </c>
+      <c r="K262" t="n">
+        <v>86</v>
+      </c>
+      <c r="L262" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="M262" t="n">
+        <v>111.25</v>
+      </c>
+      <c r="N262" t="n">
+        <v>1.745098039215686</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>12</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>70</v>
+      </c>
+      <c r="G263" t="n">
+        <v>60</v>
+      </c>
+      <c r="H263" t="n">
+        <v>71</v>
+      </c>
+      <c r="I263" t="n">
+        <v>72</v>
+      </c>
+      <c r="J263" t="n">
+        <v>81</v>
+      </c>
+      <c r="K263" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="L263" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.0212765957446808</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>12</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>585</v>
+      </c>
+      <c r="G264" t="n">
+        <v>361</v>
+      </c>
+      <c r="H264" t="n">
+        <v>396</v>
+      </c>
+      <c r="I264" t="n">
+        <v>473</v>
+      </c>
+      <c r="J264" t="n">
+        <v>345</v>
+      </c>
+      <c r="K264" t="n">
+        <v>432</v>
+      </c>
+      <c r="L264" t="n">
+        <v>421.75</v>
+      </c>
+      <c r="M264" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.1215174866627148</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>12</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>585</v>
+      </c>
+      <c r="G265" t="n">
+        <v>361</v>
+      </c>
+      <c r="H265" t="n">
+        <v>396</v>
+      </c>
+      <c r="I265" t="n">
+        <v>473</v>
+      </c>
+      <c r="J265" t="n">
+        <v>345</v>
+      </c>
+      <c r="K265" t="n">
+        <v>432</v>
+      </c>
+      <c r="L265" t="n">
+        <v>421.75</v>
+      </c>
+      <c r="M265" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.1215174866627148</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>12</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>0.2708</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.1671</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.1833</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.1597</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.19998</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0.1952249999999999</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0.023775</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0.1217825585862467</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>12</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" t="n">
+        <v>45</v>
+      </c>
+      <c r="H267" t="n">
+        <v>42</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>32</v>
+      </c>
+      <c r="K267" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="L267" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="M267" t="n">
+        <v>-29.75</v>
+      </c>
+      <c r="N267" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>12</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H268" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K268" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L268" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M268" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="N268" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>12</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H269" t="n">
+        <v>874</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>394</v>
+      </c>
+      <c r="K269" t="n">
+        <v>653.8</v>
+      </c>
+      <c r="L269" t="n">
+        <v>817.25</v>
+      </c>
+      <c r="M269" t="n">
+        <v>-817.25</v>
+      </c>
+      <c r="N269" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>12</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" t="n">
+        <v>344</v>
+      </c>
+      <c r="H270" t="n">
+        <v>492</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>394</v>
+      </c>
+      <c r="K270" t="n">
+        <v>246</v>
+      </c>
+      <c r="L270" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="M270" t="n">
+        <v>-307.5</v>
+      </c>
+      <c r="N270" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>12</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M271" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N271" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>12</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>60</v>
+      </c>
+      <c r="G272" t="n">
+        <v>67</v>
+      </c>
+      <c r="H272" t="n">
+        <v>64</v>
+      </c>
+      <c r="I272" t="n">
+        <v>63</v>
+      </c>
+      <c r="J272" t="n">
+        <v>70</v>
+      </c>
+      <c r="K272" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="L272" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="M272" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="N272" t="n">
+        <v>-0.0344827586206896</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>12</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>5</v>
+      </c>
+      <c r="G273" t="n">
+        <v>6</v>
+      </c>
+      <c r="H273" t="n">
+        <v>3</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>5</v>
+      </c>
+      <c r="K273" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L273" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M273" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="N273" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>12</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G274" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H274" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I274" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J274" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K274" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="L274" t="n">
+        <v>5.424999999999999</v>
+      </c>
+      <c r="M274" t="n">
+        <v>-0.0249999999999985</v>
+      </c>
+      <c r="N274" t="n">
+        <v>-0.0046082949308753</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>12</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>200</v>
+      </c>
+      <c r="G275" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="H275" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="I275" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="J275" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="K275" t="n">
+        <v>227.02</v>
+      </c>
+      <c r="L275" t="n">
+        <v>246.2</v>
+      </c>
+      <c r="M275" t="n">
+        <v>-95.89999999999998</v>
+      </c>
+      <c r="N275" t="n">
+        <v>-0.3895207148659625</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>12</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>2</v>
+      </c>
+      <c r="G276" t="n">
+        <v>2</v>
+      </c>
+      <c r="H276" t="n">
+        <v>2</v>
+      </c>
+      <c r="I276" t="n">
+        <v>3</v>
+      </c>
+      <c r="J276" t="n">
+        <v>2</v>
+      </c>
+      <c r="K276" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L276" t="n">
+        <v>2</v>
+      </c>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>12</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G277" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H277" t="n">
+        <v>7000</v>
+      </c>
+      <c r="I277" t="n">
+        <v>4750</v>
+      </c>
+      <c r="J277" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K277" t="n">
+        <v>5950</v>
+      </c>
+      <c r="L277" t="n">
+        <v>6250</v>
+      </c>
+      <c r="M277" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="N277" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>12</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1191</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1470</v>
+      </c>
+      <c r="I278" t="n">
+        <v>851</v>
+      </c>
+      <c r="J278" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K278" t="n">
+        <v>1781.4</v>
+      </c>
+      <c r="L278" t="n">
+        <v>2014</v>
+      </c>
+      <c r="M278" t="n">
+        <v>-1163</v>
+      </c>
+      <c r="N278" t="n">
+        <v>-0.5774577954319762</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>12</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G279" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H279" t="n">
+        <v>14000</v>
+      </c>
+      <c r="I279" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J279" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K279" t="n">
+        <v>12800</v>
+      </c>
+      <c r="L279" t="n">
+        <v>13500</v>
+      </c>
+      <c r="M279" t="n">
+        <v>-3500</v>
+      </c>
+      <c r="N279" t="n">
+        <v>-0.2592592592592592</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>12</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>65</v>
+      </c>
+      <c r="G280" t="n">
+        <v>185</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>150</v>
+      </c>
+      <c r="J280" t="n">
+        <v>45</v>
+      </c>
+      <c r="K280" t="n">
+        <v>89</v>
+      </c>
+      <c r="L280" t="n">
+        <v>73.75</v>
+      </c>
+      <c r="M280" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="N280" t="n">
+        <v>1.033898305084746</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>12</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>70</v>
+      </c>
+      <c r="G281" t="n">
+        <v>60</v>
+      </c>
+      <c r="H281" t="n">
+        <v>71</v>
+      </c>
+      <c r="I281" t="n">
+        <v>72</v>
+      </c>
+      <c r="J281" t="n">
+        <v>81</v>
+      </c>
+      <c r="K281" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="L281" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0.0212765957446808</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>12</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>2876</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1701</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1514</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1004</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1765</v>
+      </c>
+      <c r="K282" t="n">
+        <v>1772</v>
+      </c>
+      <c r="L282" t="n">
+        <v>1964</v>
+      </c>
+      <c r="M282" t="n">
+        <v>-960</v>
+      </c>
+      <c r="N282" t="n">
+        <v>-0.4887983706720977</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>12</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>-572</v>
+      </c>
+      <c r="G283" t="n">
+        <v>69</v>
+      </c>
+      <c r="H283" t="n">
+        <v>3</v>
+      </c>
+      <c r="I283" t="n">
+        <v>181</v>
+      </c>
+      <c r="J283" t="n">
+        <v>319</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>-45.25</v>
+      </c>
+      <c r="M283" t="n">
+        <v>226.25</v>
+      </c>
+      <c r="N283" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>12</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>2304</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1770</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1517</v>
+      </c>
+      <c r="I284" t="n">
+        <v>1185</v>
+      </c>
+      <c r="J284" t="n">
+        <v>2084</v>
+      </c>
+      <c r="K284" t="n">
+        <v>1772</v>
+      </c>
+      <c r="L284" t="n">
+        <v>1918.75</v>
+      </c>
+      <c r="M284" t="n">
+        <v>-733.75</v>
+      </c>
+      <c r="N284" t="n">
+        <v>-0.3824104234527687</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>12</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.1998</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0.1712</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0.1337</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.2352</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.19998</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0.21655</v>
+      </c>
+      <c r="M285" t="n">
+        <v>-0.0828499999999999</v>
+      </c>
+      <c r="N285" t="n">
+        <v>-0.3825906257215423</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>12</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>85</v>
+      </c>
+      <c r="G286" t="n">
+        <v>99</v>
+      </c>
+      <c r="H286" t="n">
+        <v>90</v>
+      </c>
+      <c r="I286" t="n">
+        <v>100</v>
+      </c>
+      <c r="J286" t="n">
+        <v>98</v>
+      </c>
+      <c r="K286" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="L286" t="n">
+        <v>93</v>
+      </c>
+      <c r="M286" t="n">
+        <v>7</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0.07526881720430099</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>12</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G287" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H287" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I287" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J287" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K287" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="L287" t="n">
+        <v>5.424999999999999</v>
+      </c>
+      <c r="M287" t="n">
+        <v>-0.0249999999999985</v>
+      </c>
+      <c r="N287" t="n">
+        <v>-0.0046082949308753</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>12</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>200</v>
+      </c>
+      <c r="G288" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="H288" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="I288" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="J288" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="K288" t="n">
+        <v>227.02</v>
+      </c>
+      <c r="L288" t="n">
+        <v>246.2</v>
+      </c>
+      <c r="M288" t="n">
+        <v>-95.89999999999998</v>
+      </c>
+      <c r="N288" t="n">
+        <v>-0.3895207148659625</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>12</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>1</v>
+      </c>
+      <c r="G289" t="n">
+        <v>1</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M289" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N289" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>12</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G290" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H290" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I290" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J290" t="n">
+        <v>6500</v>
+      </c>
+      <c r="K290" t="n">
+        <v>6300</v>
+      </c>
+      <c r="L290" t="n">
+        <v>6875</v>
+      </c>
+      <c r="M290" t="n">
+        <v>-2875</v>
+      </c>
+      <c r="N290" t="n">
+        <v>-0.4181818181818181</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>12</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G291" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H291" t="n">
+        <v>14000</v>
+      </c>
+      <c r="I291" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J291" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K291" t="n">
+        <v>12800</v>
+      </c>
+      <c r="L291" t="n">
+        <v>13500</v>
+      </c>
+      <c r="M291" t="n">
+        <v>-3500</v>
+      </c>
+      <c r="N291" t="n">
+        <v>-0.2592592592592592</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>12</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>65</v>
+      </c>
+      <c r="G292" t="n">
+        <v>185</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>150</v>
+      </c>
+      <c r="J292" t="n">
+        <v>45</v>
+      </c>
+      <c r="K292" t="n">
+        <v>89</v>
+      </c>
+      <c r="L292" t="n">
+        <v>73.75</v>
+      </c>
+      <c r="M292" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="N292" t="n">
+        <v>1.033898305084746</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>12</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>70</v>
+      </c>
+      <c r="G293" t="n">
+        <v>60</v>
+      </c>
+      <c r="H293" t="n">
+        <v>71</v>
+      </c>
+      <c r="I293" t="n">
+        <v>72</v>
+      </c>
+      <c r="J293" t="n">
+        <v>81</v>
+      </c>
+      <c r="K293" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="L293" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="M293" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0.0212765957446808</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>12</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>550</v>
+      </c>
+      <c r="G294" t="n">
+        <v>407</v>
+      </c>
+      <c r="H294" t="n">
+        <v>366</v>
+      </c>
+      <c r="I294" t="n">
+        <v>195</v>
+      </c>
+      <c r="J294" t="n">
+        <v>311</v>
+      </c>
+      <c r="K294" t="n">
+        <v>365.8</v>
+      </c>
+      <c r="L294" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="M294" t="n">
+        <v>-213.5</v>
+      </c>
+      <c r="N294" t="n">
+        <v>-0.5226438188494492</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>12</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>550</v>
+      </c>
+      <c r="G295" t="n">
+        <v>407</v>
+      </c>
+      <c r="H295" t="n">
+        <v>366</v>
+      </c>
+      <c r="I295" t="n">
+        <v>195</v>
+      </c>
+      <c r="J295" t="n">
+        <v>311</v>
+      </c>
+      <c r="K295" t="n">
+        <v>365.8</v>
+      </c>
+      <c r="L295" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="M295" t="n">
+        <v>-213.5</v>
+      </c>
+      <c r="N295" t="n">
+        <v>-0.5226438188494492</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>12</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>0.3007</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.2225</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.2001</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.1066</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.19998</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0.223325</v>
+      </c>
+      <c r="M296" t="n">
+        <v>-0.116725</v>
+      </c>
+      <c r="N296" t="n">
+        <v>-0.5226687562968768</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>12</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>37</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0</v>
+      </c>
+      <c r="H297" t="n">
+        <v>44</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="L297" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="M297" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="N297" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>12</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
+      <c r="H298" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L298" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M298" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="N298" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>12</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>275</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" t="n">
+        <v>957</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="L299" t="n">
+        <v>308</v>
+      </c>
+      <c r="M299" t="n">
+        <v>-308</v>
+      </c>
+      <c r="N299" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>12</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>0</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0</v>
+      </c>
+      <c r="H300" t="n">
+        <v>957</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="L300" t="n">
+        <v>239.25</v>
+      </c>
+      <c r="M300" t="n">
+        <v>-239.25</v>
+      </c>
+      <c r="N300" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>12</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>0</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.1556</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0.1945</v>
+      </c>
+      <c r="M301" t="n">
+        <v>-0.1945</v>
+      </c>
+      <c r="N301" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>12</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>59</v>
+      </c>
+      <c r="G302" t="n">
+        <v>61</v>
+      </c>
+      <c r="H302" t="n">
+        <v>60</v>
+      </c>
+      <c r="I302" t="n">
+        <v>56</v>
+      </c>
+      <c r="J302" t="n">
+        <v>60</v>
+      </c>
+      <c r="K302" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="L302" t="n">
+        <v>60</v>
+      </c>
+      <c r="M302" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N302" t="n">
+        <v>-0.0666666666666666</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>12</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>5</v>
+      </c>
+      <c r="G303" t="n">
+        <v>4</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
+        <v>4</v>
+      </c>
+      <c r="J303" t="n">
+        <v>5</v>
+      </c>
+      <c r="K303" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L303" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>12</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G304" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H304" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I304" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J304" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K304" t="n">
+        <v>5.359999999999999</v>
+      </c>
+      <c r="L304" t="n">
+        <v>5.324999999999999</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0.1750000000000007</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0.0328638497652583</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>12</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>200</v>
+      </c>
+      <c r="G305" t="n">
+        <v>272.4</v>
+      </c>
+      <c r="H305" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="I305" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="J305" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="K305" t="n">
+        <v>223.18</v>
+      </c>
+      <c r="L305" t="n">
+        <v>241.45</v>
+      </c>
+      <c r="M305" t="n">
+        <v>-91.34999999999999</v>
+      </c>
+      <c r="N305" t="n">
+        <v>-0.3783392006626631</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>12</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>2</v>
+      </c>
+      <c r="G306" t="n">
+        <v>2</v>
+      </c>
+      <c r="H306" t="n">
+        <v>3</v>
+      </c>
+      <c r="I306" t="n">
+        <v>2</v>
+      </c>
+      <c r="J306" t="n">
+        <v>2</v>
+      </c>
+      <c r="K306" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L306" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M306" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N306" t="n">
+        <v>-0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>12</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G307" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H307" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I307" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J307" t="n">
+        <v>4250</v>
+      </c>
+      <c r="K307" t="n">
+        <v>4350</v>
+      </c>
+      <c r="L307" t="n">
+        <v>3937.5</v>
+      </c>
+      <c r="M307" t="n">
+        <v>2062.5</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>12</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>2330</v>
+      </c>
+      <c r="G308" t="n">
+        <v>648</v>
+      </c>
+      <c r="H308" t="n">
+        <v>968</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J308" t="n">
+        <v>1572</v>
+      </c>
+      <c r="K308" t="n">
+        <v>1431.2</v>
+      </c>
+      <c r="L308" t="n">
+        <v>1379.5</v>
+      </c>
+      <c r="M308" t="n">
+        <v>258.5</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0.1873867343240304</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>12</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G309" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H309" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I309" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J309" t="n">
+        <v>11500</v>
+      </c>
+      <c r="K309" t="n">
+        <v>10700</v>
+      </c>
+      <c r="L309" t="n">
+        <v>9625</v>
+      </c>
+      <c r="M309" t="n">
+        <v>5375</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0.5584415584415584</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>12</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>60</v>
+      </c>
+      <c r="G310" t="n">
+        <v>130</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
+        <v>160</v>
+      </c>
+      <c r="J310" t="n">
+        <v>100</v>
+      </c>
+      <c r="K310" t="n">
+        <v>90</v>
+      </c>
+      <c r="L310" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="M310" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="N310" t="n">
+        <v>1.206896551724138</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>12</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>70</v>
+      </c>
+      <c r="G311" t="n">
+        <v>60</v>
+      </c>
+      <c r="H311" t="n">
+        <v>71</v>
+      </c>
+      <c r="I311" t="n">
+        <v>72</v>
+      </c>
+      <c r="J311" t="n">
+        <v>81</v>
+      </c>
+      <c r="K311" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="L311" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="M311" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0.0212765957446808</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>12</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>1731</v>
+      </c>
+      <c r="G312" t="n">
+        <v>992</v>
+      </c>
+      <c r="H312" t="n">
+        <v>869</v>
+      </c>
+      <c r="I312" t="n">
+        <v>1799</v>
+      </c>
+      <c r="J312" t="n">
+        <v>1660</v>
+      </c>
+      <c r="K312" t="n">
+        <v>1410.2</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1313</v>
+      </c>
+      <c r="M312" t="n">
+        <v>486</v>
+      </c>
+      <c r="N312" t="n">
+        <v>0.3701447067783701</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>12</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F313" t="n">
+        <v>-556</v>
+      </c>
+      <c r="G313" t="n">
+        <v>182</v>
+      </c>
+      <c r="H313" t="n">
+        <v>160</v>
+      </c>
+      <c r="I313" t="n">
+        <v>162</v>
+      </c>
+      <c r="J313" t="n">
+        <v>52</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L313" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="M313" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="N313" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>12</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F314" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G314" t="n">
+        <v>1174</v>
+      </c>
+      <c r="H314" t="n">
+        <v>1029</v>
+      </c>
+      <c r="I314" t="n">
+        <v>1961</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1712</v>
+      </c>
+      <c r="K314" t="n">
+        <v>1410.2</v>
+      </c>
+      <c r="L314" t="n">
+        <v>1272.5</v>
+      </c>
+      <c r="M314" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="N314" t="n">
+        <v>0.5410609037328095</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>12</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>0.1666</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.1665</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.1459</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.2781</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.2428</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.19998</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0.18045</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0.09765</v>
+      </c>
+      <c r="N315" t="n">
+        <v>0.5411471321695761</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>12</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>84</v>
+      </c>
+      <c r="G316" t="n">
+        <v>89</v>
+      </c>
+      <c r="H316" t="n">
+        <v>84</v>
+      </c>
+      <c r="I316" t="n">
+        <v>90</v>
+      </c>
+      <c r="J316" t="n">
+        <v>91</v>
+      </c>
+      <c r="K316" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="L316" t="n">
+        <v>87</v>
+      </c>
+      <c r="M316" t="n">
+        <v>3</v>
+      </c>
+      <c r="N316" t="n">
+        <v>0.0344827586206896</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>12</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G317" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H317" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I317" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J317" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K317" t="n">
+        <v>5.359999999999999</v>
+      </c>
+      <c r="L317" t="n">
+        <v>5.324999999999999</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0.1750000000000007</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0.0328638497652583</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>12</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>200</v>
+      </c>
+      <c r="G318" t="n">
+        <v>272.4</v>
+      </c>
+      <c r="H318" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="I318" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="J318" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="K318" t="n">
+        <v>223.18</v>
+      </c>
+      <c r="L318" t="n">
+        <v>241.45</v>
+      </c>
+      <c r="M318" t="n">
+        <v>-91.34999999999999</v>
+      </c>
+      <c r="N318" t="n">
+        <v>-0.3783392006626631</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>12</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F319" t="n">
+        <v>1</v>
+      </c>
+      <c r="G319" t="n">
+        <v>1</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="n">
+        <v>1</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>12</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F320" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G320" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H320" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I320" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J320" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K320" t="n">
+        <v>4800</v>
+      </c>
+      <c r="L320" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M320" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N320" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>12</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F321" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G321" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H321" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I321" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J321" t="n">
+        <v>11500</v>
+      </c>
+      <c r="K321" t="n">
+        <v>10700</v>
+      </c>
+      <c r="L321" t="n">
+        <v>9625</v>
+      </c>
+      <c r="M321" t="n">
+        <v>5375</v>
+      </c>
+      <c r="N321" t="n">
+        <v>0.5584415584415584</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>12</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F322" t="n">
+        <v>60</v>
+      </c>
+      <c r="G322" t="n">
+        <v>130</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="n">
+        <v>160</v>
+      </c>
+      <c r="J322" t="n">
+        <v>100</v>
+      </c>
+      <c r="K322" t="n">
+        <v>90</v>
+      </c>
+      <c r="L322" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="M322" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="N322" t="n">
+        <v>1.206896551724138</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>12</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F323" t="n">
+        <v>70</v>
+      </c>
+      <c r="G323" t="n">
+        <v>60</v>
+      </c>
+      <c r="H323" t="n">
+        <v>71</v>
+      </c>
+      <c r="I323" t="n">
+        <v>72</v>
+      </c>
+      <c r="J323" t="n">
+        <v>81</v>
+      </c>
+      <c r="K323" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="L323" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="M323" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N323" t="n">
+        <v>0.0212765957446808</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>12</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F324" t="n">
+        <v>351</v>
+      </c>
+      <c r="G324" t="n">
+        <v>256</v>
+      </c>
+      <c r="H324" t="n">
+        <v>218</v>
+      </c>
+      <c r="I324" t="n">
+        <v>341</v>
+      </c>
+      <c r="J324" t="n">
+        <v>275</v>
+      </c>
+      <c r="K324" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="L324" t="n">
+        <v>275</v>
+      </c>
+      <c r="M324" t="n">
+        <v>66</v>
+      </c>
+      <c r="N324" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>12</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F325" t="n">
+        <v>351</v>
+      </c>
+      <c r="G325" t="n">
+        <v>256</v>
+      </c>
+      <c r="H325" t="n">
+        <v>218</v>
+      </c>
+      <c r="I325" t="n">
+        <v>341</v>
+      </c>
+      <c r="J325" t="n">
+        <v>275</v>
+      </c>
+      <c r="K325" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="L325" t="n">
+        <v>275</v>
+      </c>
+      <c r="M325" t="n">
+        <v>66</v>
+      </c>
+      <c r="N325" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>12</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F326" t="n">
+        <v>0.2436</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.1777</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.1513</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.2366</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.1908</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0.19085</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0.04575</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0.239717055279015</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>12</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F327" t="n">
+        <v>0</v>
+      </c>
+      <c r="G327" t="n">
+        <v>41</v>
+      </c>
+      <c r="H327" t="n">
+        <v>40</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="L327" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="M327" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="N327" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>12</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F328" t="n">
+        <v>0</v>
+      </c>
+      <c r="G328" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H328" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L328" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="M328" t="n">
+        <v>-2.125</v>
+      </c>
+      <c r="N328" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>12</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F329" t="n">
+        <v>0</v>
+      </c>
+      <c r="G329" t="n">
+        <v>1943</v>
+      </c>
+      <c r="H329" t="n">
+        <v>479</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>484.4</v>
+      </c>
+      <c r="L329" t="n">
+        <v>605.5</v>
+      </c>
+      <c r="M329" t="n">
+        <v>-605.5</v>
+      </c>
+      <c r="N329" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>12</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F330" t="n">
+        <v>0</v>
+      </c>
+      <c r="G330" t="n">
+        <v>796</v>
+      </c>
+      <c r="H330" t="n">
+        <v>479</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>255</v>
+      </c>
+      <c r="L330" t="n">
+        <v>318.75</v>
+      </c>
+      <c r="M330" t="n">
+        <v>-318.75</v>
+      </c>
+      <c r="N330" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>12</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M331" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N331" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>12</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F332" t="n">
+        <v>61</v>
+      </c>
+      <c r="G332" t="n">
+        <v>67</v>
+      </c>
+      <c r="H332" t="n">
+        <v>60</v>
+      </c>
+      <c r="I332" t="n">
+        <v>65</v>
+      </c>
+      <c r="J332" t="n">
+        <v>65</v>
+      </c>
+      <c r="K332" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="L332" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="M332" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N332" t="n">
+        <v>0.0276679841897233</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>12</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F333" t="n">
+        <v>4</v>
+      </c>
+      <c r="G333" t="n">
+        <v>6</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="n">
+        <v>4</v>
+      </c>
+      <c r="J333" t="n">
+        <v>5</v>
+      </c>
+      <c r="K333" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L333" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N333" t="n">
+        <v>0.0666666666666666</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>12</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G334" t="n">
+        <v>5</v>
+      </c>
+      <c r="H334" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I334" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J334" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K334" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="L334" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M334" t="n">
+        <v>-0.0999999999999996</v>
+      </c>
+      <c r="N334" t="n">
+        <v>-0.0181818181818181</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>12</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F335" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="G335" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="H335" t="n">
+        <v>249</v>
+      </c>
+      <c r="I335" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="J335" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="K335" t="n">
+        <v>233.52</v>
+      </c>
+      <c r="L335" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="M335" t="n">
+        <v>-66.40000000000001</v>
+      </c>
+      <c r="N335" t="n">
+        <v>-0.2690437601296596</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>12</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F336" t="n">
+        <v>3</v>
+      </c>
+      <c r="G336" t="n">
+        <v>3</v>
+      </c>
+      <c r="H336" t="n">
+        <v>3</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3</v>
+      </c>
+      <c r="J336" t="n">
+        <v>3</v>
+      </c>
+      <c r="K336" t="n">
+        <v>3</v>
+      </c>
+      <c r="L336" t="n">
+        <v>3</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>12</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F337" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G337" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H337" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I337" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J337" t="n">
+        <v>3250</v>
+      </c>
+      <c r="K337" t="n">
+        <v>3550</v>
+      </c>
+      <c r="L337" t="n">
+        <v>3187.5</v>
+      </c>
+      <c r="M337" t="n">
+        <v>1812.5</v>
+      </c>
+      <c r="N337" t="n">
+        <v>0.5686274509803921</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>12</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F338" t="n">
+        <v>2043</v>
+      </c>
+      <c r="G338" t="n">
+        <v>595</v>
+      </c>
+      <c r="H338" t="n">
+        <v>602</v>
+      </c>
+      <c r="I338" t="n">
+        <v>1397</v>
+      </c>
+      <c r="J338" t="n">
+        <v>1125</v>
+      </c>
+      <c r="K338" t="n">
+        <v>1152.4</v>
+      </c>
+      <c r="L338" t="n">
+        <v>1091.25</v>
+      </c>
+      <c r="M338" t="n">
+        <v>305.75</v>
+      </c>
+      <c r="N338" t="n">
+        <v>0.2801832760595647</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>12</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F339" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G339" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H339" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I339" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J339" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K339" t="n">
+        <v>9600</v>
+      </c>
+      <c r="L339" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M339" t="n">
+        <v>500</v>
+      </c>
+      <c r="N339" t="n">
+        <v>0.0526315789473684</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>12</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F340" t="n">
+        <v>40</v>
+      </c>
+      <c r="G340" t="n">
+        <v>155</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="n">
+        <v>135</v>
+      </c>
+      <c r="J340" t="n">
+        <v>65</v>
+      </c>
+      <c r="K340" t="n">
+        <v>79</v>
+      </c>
+      <c r="L340" t="n">
+        <v>65</v>
+      </c>
+      <c r="M340" t="n">
+        <v>70</v>
+      </c>
+      <c r="N340" t="n">
+        <v>1.076923076923077</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>12</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>70</v>
+      </c>
+      <c r="G341" t="n">
+        <v>60</v>
+      </c>
+      <c r="H341" t="n">
+        <v>71</v>
+      </c>
+      <c r="I341" t="n">
+        <v>72</v>
+      </c>
+      <c r="J341" t="n">
+        <v>81</v>
+      </c>
+      <c r="K341" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="L341" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="M341" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N341" t="n">
+        <v>0.0212765957446808</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>12</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F342" t="n">
+        <v>1568</v>
+      </c>
+      <c r="G342" t="n">
+        <v>1613</v>
+      </c>
+      <c r="H342" t="n">
+        <v>1133</v>
+      </c>
+      <c r="I342" t="n">
+        <v>1460</v>
+      </c>
+      <c r="J342" t="n">
+        <v>1506</v>
+      </c>
+      <c r="K342" t="n">
+        <v>1456</v>
+      </c>
+      <c r="L342" t="n">
+        <v>1455</v>
+      </c>
+      <c r="M342" t="n">
+        <v>5</v>
+      </c>
+      <c r="N342" t="n">
+        <v>0.0034364261168384</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>12</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>21</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-298</v>
+      </c>
+      <c r="H343" t="n">
+        <v>-331</v>
+      </c>
+      <c r="I343" t="n">
+        <v>161</v>
+      </c>
+      <c r="J343" t="n">
+        <v>92</v>
+      </c>
+      <c r="K343" t="n">
+        <v>-71</v>
+      </c>
+      <c r="L343" t="n">
+        <v>-129</v>
+      </c>
+      <c r="M343" t="n">
+        <v>290</v>
+      </c>
+      <c r="N343" t="n">
+        <v>-2.248062015503876</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>12</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F344" t="n">
+        <v>1589</v>
+      </c>
+      <c r="G344" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H344" t="n">
+        <v>802</v>
+      </c>
+      <c r="I344" t="n">
+        <v>1621</v>
+      </c>
+      <c r="J344" t="n">
+        <v>1598</v>
+      </c>
+      <c r="K344" t="n">
+        <v>1385</v>
+      </c>
+      <c r="L344" t="n">
+        <v>1326</v>
+      </c>
+      <c r="M344" t="n">
+        <v>295</v>
+      </c>
+      <c r="N344" t="n">
+        <v>0.222473604826546</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>12</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F345" t="n">
+        <v>0.2295</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.1899</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.1158</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.2341</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.2308</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.20002</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0.1915</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0.0426</v>
+      </c>
+      <c r="N345" t="n">
+        <v>0.2224543080939947</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>12</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F346" t="n">
+        <v>86</v>
+      </c>
+      <c r="G346" t="n">
+        <v>99</v>
+      </c>
+      <c r="H346" t="n">
+        <v>84</v>
+      </c>
+      <c r="I346" t="n">
+        <v>105</v>
+      </c>
+      <c r="J346" t="n">
+        <v>93</v>
+      </c>
+      <c r="K346" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="L346" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="M346" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="N346" t="n">
+        <v>0.1602209944751381</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>12</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F347" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G347" t="n">
+        <v>5</v>
+      </c>
+      <c r="H347" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I347" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J347" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K347" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="L347" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M347" t="n">
+        <v>-0.0999999999999996</v>
+      </c>
+      <c r="N347" t="n">
+        <v>-0.0181818181818181</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>12</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F348" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="G348" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="H348" t="n">
+        <v>249</v>
+      </c>
+      <c r="I348" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="J348" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="K348" t="n">
+        <v>233.52</v>
+      </c>
+      <c r="L348" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="M348" t="n">
+        <v>-66.40000000000001</v>
+      </c>
+      <c r="N348" t="n">
+        <v>-0.2690437601296596</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>12</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F349" t="n">
+        <v>1</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="n">
+        <v>1</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N349" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>12</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F350" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G350" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H350" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I350" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J350" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K350" t="n">
+        <v>3900</v>
+      </c>
+      <c r="L350" t="n">
+        <v>3375</v>
+      </c>
+      <c r="M350" t="n">
+        <v>2625</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>12</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F351" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G351" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H351" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I351" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J351" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K351" t="n">
+        <v>9600</v>
+      </c>
+      <c r="L351" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M351" t="n">
+        <v>500</v>
+      </c>
+      <c r="N351" t="n">
+        <v>0.0526315789473684</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>12</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F352" t="n">
+        <v>40</v>
+      </c>
+      <c r="G352" t="n">
+        <v>155</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="n">
+        <v>135</v>
+      </c>
+      <c r="J352" t="n">
+        <v>65</v>
+      </c>
+      <c r="K352" t="n">
+        <v>79</v>
+      </c>
+      <c r="L352" t="n">
+        <v>65</v>
+      </c>
+      <c r="M352" t="n">
+        <v>70</v>
+      </c>
+      <c r="N352" t="n">
+        <v>1.076923076923077</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>12</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F353" t="n">
+        <v>70</v>
+      </c>
+      <c r="G353" t="n">
+        <v>60</v>
+      </c>
+      <c r="H353" t="n">
+        <v>71</v>
+      </c>
+      <c r="I353" t="n">
+        <v>72</v>
+      </c>
+      <c r="J353" t="n">
+        <v>81</v>
+      </c>
+      <c r="K353" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="L353" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="M353" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N353" t="n">
+        <v>0.0212765957446808</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>12</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F354" t="n">
+        <v>316</v>
+      </c>
+      <c r="G354" t="n">
+        <v>282</v>
+      </c>
+      <c r="H354" t="n">
+        <v>299</v>
+      </c>
+      <c r="I354" t="n">
+        <v>264</v>
+      </c>
+      <c r="J354" t="n">
+        <v>284</v>
+      </c>
+      <c r="K354" t="n">
+        <v>289</v>
+      </c>
+      <c r="L354" t="n">
+        <v>295.25</v>
+      </c>
+      <c r="M354" t="n">
+        <v>-31.25</v>
+      </c>
+      <c r="N354" t="n">
+        <v>-0.1058425063505503</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>12</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F355" t="n">
+        <v>316</v>
+      </c>
+      <c r="G355" t="n">
+        <v>282</v>
+      </c>
+      <c r="H355" t="n">
+        <v>299</v>
+      </c>
+      <c r="I355" t="n">
+        <v>264</v>
+      </c>
+      <c r="J355" t="n">
+        <v>284</v>
+      </c>
+      <c r="K355" t="n">
+        <v>289</v>
+      </c>
+      <c r="L355" t="n">
+        <v>295.25</v>
+      </c>
+      <c r="M355" t="n">
+        <v>-31.25</v>
+      </c>
+      <c r="N355" t="n">
+        <v>-0.1058425063505503</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>12</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F356" t="n">
+        <v>0.2187</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.1952</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.2069</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.1827</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.1965</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0.204325</v>
+      </c>
+      <c r="M356" t="n">
+        <v>-0.021625</v>
+      </c>
+      <c r="N356" t="n">
+        <v>-0.105836290223908</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>12</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F357" t="n">
+        <v>0</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0</v>
+      </c>
+      <c r="H357" t="n">
+        <v>40</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>8</v>
+      </c>
+      <c r="L357" t="n">
+        <v>10</v>
+      </c>
+      <c r="M357" t="n">
+        <v>-10</v>
+      </c>
+      <c r="N357" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>12</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F358" t="n">
+        <v>0</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0</v>
+      </c>
+      <c r="H358" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+      <c r="L358" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M358" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="N358" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>12</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F359" t="n">
+        <v>0</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0</v>
+      </c>
+      <c r="H359" t="n">
+        <v>777</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="L359" t="n">
+        <v>194.25</v>
+      </c>
+      <c r="M359" t="n">
+        <v>-194.25</v>
+      </c>
+      <c r="N359" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>12</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F360" t="n">
+        <v>0</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0</v>
+      </c>
+      <c r="H360" t="n">
+        <v>777</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
+      <c r="K360" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="L360" t="n">
+        <v>194.25</v>
+      </c>
+      <c r="M360" t="n">
+        <v>-194.25</v>
+      </c>
+      <c r="N360" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>12</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F361" t="n">
+        <v>0</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.1217999999999999</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0.15225</v>
+      </c>
+      <c r="M361" t="n">
+        <v>-0.15225</v>
+      </c>
+      <c r="N361" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/accumulated/ci_acumulado.xlsx
+++ b/data/accumulated/ci_acumulado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N361"/>
+  <dimension ref="A1:N481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19175,6 +19175,6246 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>13</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F362" t="n">
+        <v>65</v>
+      </c>
+      <c r="G362" t="n">
+        <v>63</v>
+      </c>
+      <c r="H362" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="I362" t="n">
+        <v>61</v>
+      </c>
+      <c r="J362" t="n">
+        <v>68</v>
+      </c>
+      <c r="K362" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="L362" t="n">
+        <v>65.625</v>
+      </c>
+      <c r="M362" t="n">
+        <v>-4.625</v>
+      </c>
+      <c r="N362" t="n">
+        <v>-0.0704761904761904</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>13</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F363" t="n">
+        <v>5</v>
+      </c>
+      <c r="G363" t="n">
+        <v>4</v>
+      </c>
+      <c r="H363" t="n">
+        <v>3</v>
+      </c>
+      <c r="I363" t="n">
+        <v>4</v>
+      </c>
+      <c r="J363" t="n">
+        <v>5</v>
+      </c>
+      <c r="K363" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L363" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M363" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N363" t="n">
+        <v>-0.0588235294117647</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>13</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F364" t="n">
+        <v>5</v>
+      </c>
+      <c r="G364" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H364" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I364" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J364" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K364" t="n">
+        <v>5.640000000000001</v>
+      </c>
+      <c r="L364" t="n">
+        <v>5.725000000000001</v>
+      </c>
+      <c r="M364" t="n">
+        <v>-0.4250000000000007</v>
+      </c>
+      <c r="N364" t="n">
+        <v>-0.0742358078602621</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>13</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F365" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="G365" t="n">
+        <v>297.8</v>
+      </c>
+      <c r="H365" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="I365" t="n">
+        <v>200</v>
+      </c>
+      <c r="J365" t="n">
+        <v>250</v>
+      </c>
+      <c r="K365" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="L365" t="n">
+        <v>249.375</v>
+      </c>
+      <c r="M365" t="n">
+        <v>-49.375</v>
+      </c>
+      <c r="N365" t="n">
+        <v>-0.1979949874686716</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>13</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F366" t="n">
+        <v>2</v>
+      </c>
+      <c r="G366" t="n">
+        <v>3</v>
+      </c>
+      <c r="H366" t="n">
+        <v>2</v>
+      </c>
+      <c r="I366" t="n">
+        <v>2</v>
+      </c>
+      <c r="J366" t="n">
+        <v>2</v>
+      </c>
+      <c r="K366" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L366" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M366" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N366" t="n">
+        <v>-0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>13</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F367" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G367" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H367" t="n">
+        <v>7500</v>
+      </c>
+      <c r="I367" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J367" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K367" t="n">
+        <v>6300</v>
+      </c>
+      <c r="L367" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M367" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N367" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>13</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F368" t="n">
+        <v>2340</v>
+      </c>
+      <c r="G368" t="n">
+        <v>908</v>
+      </c>
+      <c r="H368" t="n">
+        <v>2878</v>
+      </c>
+      <c r="I368" t="n">
+        <v>4956</v>
+      </c>
+      <c r="J368" t="n">
+        <v>3610</v>
+      </c>
+      <c r="K368" t="n">
+        <v>2938.4</v>
+      </c>
+      <c r="L368" t="n">
+        <v>2434</v>
+      </c>
+      <c r="M368" t="n">
+        <v>2522</v>
+      </c>
+      <c r="N368" t="n">
+        <v>1.036154478225144</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>13</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F369" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G369" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H369" t="n">
+        <v>14000</v>
+      </c>
+      <c r="I369" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J369" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K369" t="n">
+        <v>12800</v>
+      </c>
+      <c r="L369" t="n">
+        <v>12250</v>
+      </c>
+      <c r="M369" t="n">
+        <v>2750</v>
+      </c>
+      <c r="N369" t="n">
+        <v>0.2244897959183673</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>13</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F370" t="n">
+        <v>85</v>
+      </c>
+      <c r="G370" t="n">
+        <v>110</v>
+      </c>
+      <c r="H370" t="n">
+        <v>60</v>
+      </c>
+      <c r="I370" t="n">
+        <v>175</v>
+      </c>
+      <c r="J370" t="n">
+        <v>60</v>
+      </c>
+      <c r="K370" t="n">
+        <v>98</v>
+      </c>
+      <c r="L370" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="M370" t="n">
+        <v>96.25</v>
+      </c>
+      <c r="N370" t="n">
+        <v>1.222222222222222</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>13</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F371" t="n">
+        <v>69</v>
+      </c>
+      <c r="G371" t="n">
+        <v>66</v>
+      </c>
+      <c r="H371" t="n">
+        <v>78</v>
+      </c>
+      <c r="I371" t="n">
+        <v>75</v>
+      </c>
+      <c r="J371" t="n">
+        <v>83</v>
+      </c>
+      <c r="K371" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="L371" t="n">
+        <v>74</v>
+      </c>
+      <c r="M371" t="n">
+        <v>1</v>
+      </c>
+      <c r="N371" t="n">
+        <v>0.0135135135135135</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>13</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F372" t="n">
+        <v>1668</v>
+      </c>
+      <c r="G372" t="n">
+        <v>1359</v>
+      </c>
+      <c r="H372" t="n">
+        <v>1777</v>
+      </c>
+      <c r="I372" t="n">
+        <v>3407</v>
+      </c>
+      <c r="J372" t="n">
+        <v>2274</v>
+      </c>
+      <c r="K372" t="n">
+        <v>2097</v>
+      </c>
+      <c r="L372" t="n">
+        <v>1769.5</v>
+      </c>
+      <c r="M372" t="n">
+        <v>1637.5</v>
+      </c>
+      <c r="N372" t="n">
+        <v>0.9254026561175474</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>13</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F373" t="n">
+        <v>15</v>
+      </c>
+      <c r="G373" t="n">
+        <v>11</v>
+      </c>
+      <c r="H373" t="n">
+        <v>16</v>
+      </c>
+      <c r="I373" t="n">
+        <v>-63</v>
+      </c>
+      <c r="J373" t="n">
+        <v>20</v>
+      </c>
+      <c r="K373" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="L373" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="M373" t="n">
+        <v>-78.5</v>
+      </c>
+      <c r="N373" t="n">
+        <v>-5.064516129032258</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>13</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F374" t="n">
+        <v>1683</v>
+      </c>
+      <c r="G374" t="n">
+        <v>1370</v>
+      </c>
+      <c r="H374" t="n">
+        <v>1793</v>
+      </c>
+      <c r="I374" t="n">
+        <v>3344</v>
+      </c>
+      <c r="J374" t="n">
+        <v>2294</v>
+      </c>
+      <c r="K374" t="n">
+        <v>2096.8</v>
+      </c>
+      <c r="L374" t="n">
+        <v>1785</v>
+      </c>
+      <c r="M374" t="n">
+        <v>1559</v>
+      </c>
+      <c r="N374" t="n">
+        <v>0.8733893557422969</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>13</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F375" t="n">
+        <v>0.1605</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.1307</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.2188</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0.17025</v>
+      </c>
+      <c r="M375" t="n">
+        <v>0.14875</v>
+      </c>
+      <c r="N375" t="n">
+        <v>0.8737151248164463</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>13</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F376" t="n">
+        <v>95</v>
+      </c>
+      <c r="G376" t="n">
+        <v>90</v>
+      </c>
+      <c r="H376" t="n">
+        <v>93</v>
+      </c>
+      <c r="I376" t="n">
+        <v>99</v>
+      </c>
+      <c r="J376" t="n">
+        <v>97</v>
+      </c>
+      <c r="K376" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="L376" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="M376" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="N376" t="n">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>13</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F377" t="n">
+        <v>5</v>
+      </c>
+      <c r="G377" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H377" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I377" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J377" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K377" t="n">
+        <v>5.640000000000001</v>
+      </c>
+      <c r="L377" t="n">
+        <v>5.725000000000001</v>
+      </c>
+      <c r="M377" t="n">
+        <v>-0.4250000000000007</v>
+      </c>
+      <c r="N377" t="n">
+        <v>-0.0742358078602621</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>13</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F378" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="G378" t="n">
+        <v>297.8</v>
+      </c>
+      <c r="H378" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="I378" t="n">
+        <v>200</v>
+      </c>
+      <c r="J378" t="n">
+        <v>250</v>
+      </c>
+      <c r="K378" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="L378" t="n">
+        <v>249.375</v>
+      </c>
+      <c r="M378" t="n">
+        <v>-49.375</v>
+      </c>
+      <c r="N378" t="n">
+        <v>-0.1979949874686716</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>13</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F379" t="n">
+        <v>1</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="n">
+        <v>1</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M379" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N379" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>13</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F380" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G380" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H380" t="n">
+        <v>10500</v>
+      </c>
+      <c r="I380" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J380" t="n">
+        <v>7750</v>
+      </c>
+      <c r="K380" t="n">
+        <v>8850</v>
+      </c>
+      <c r="L380" t="n">
+        <v>7812.5</v>
+      </c>
+      <c r="M380" t="n">
+        <v>5187.5</v>
+      </c>
+      <c r="N380" t="n">
+        <v>0.664</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>13</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F381" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G381" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H381" t="n">
+        <v>14000</v>
+      </c>
+      <c r="I381" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J381" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K381" t="n">
+        <v>12800</v>
+      </c>
+      <c r="L381" t="n">
+        <v>12250</v>
+      </c>
+      <c r="M381" t="n">
+        <v>2750</v>
+      </c>
+      <c r="N381" t="n">
+        <v>0.2244897959183673</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>13</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F382" t="n">
+        <v>85</v>
+      </c>
+      <c r="G382" t="n">
+        <v>110</v>
+      </c>
+      <c r="H382" t="n">
+        <v>60</v>
+      </c>
+      <c r="I382" t="n">
+        <v>175</v>
+      </c>
+      <c r="J382" t="n">
+        <v>60</v>
+      </c>
+      <c r="K382" t="n">
+        <v>98</v>
+      </c>
+      <c r="L382" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="M382" t="n">
+        <v>96.25</v>
+      </c>
+      <c r="N382" t="n">
+        <v>1.222222222222222</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>13</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F383" t="n">
+        <v>69</v>
+      </c>
+      <c r="G383" t="n">
+        <v>66</v>
+      </c>
+      <c r="H383" t="n">
+        <v>78</v>
+      </c>
+      <c r="I383" t="n">
+        <v>75</v>
+      </c>
+      <c r="J383" t="n">
+        <v>83</v>
+      </c>
+      <c r="K383" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="L383" t="n">
+        <v>74</v>
+      </c>
+      <c r="M383" t="n">
+        <v>1</v>
+      </c>
+      <c r="N383" t="n">
+        <v>0.0135135135135135</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>13</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F384" t="n">
+        <v>524</v>
+      </c>
+      <c r="G384" t="n">
+        <v>334</v>
+      </c>
+      <c r="H384" t="n">
+        <v>478</v>
+      </c>
+      <c r="I384" t="n">
+        <v>598</v>
+      </c>
+      <c r="J384" t="n">
+        <v>400</v>
+      </c>
+      <c r="K384" t="n">
+        <v>466.8</v>
+      </c>
+      <c r="L384" t="n">
+        <v>434</v>
+      </c>
+      <c r="M384" t="n">
+        <v>164</v>
+      </c>
+      <c r="N384" t="n">
+        <v>0.3778801843317972</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>13</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F385" t="n">
+        <v>524</v>
+      </c>
+      <c r="G385" t="n">
+        <v>334</v>
+      </c>
+      <c r="H385" t="n">
+        <v>478</v>
+      </c>
+      <c r="I385" t="n">
+        <v>598</v>
+      </c>
+      <c r="J385" t="n">
+        <v>400</v>
+      </c>
+      <c r="K385" t="n">
+        <v>466.8</v>
+      </c>
+      <c r="L385" t="n">
+        <v>434</v>
+      </c>
+      <c r="M385" t="n">
+        <v>164</v>
+      </c>
+      <c r="N385" t="n">
+        <v>0.3778801843317972</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>13</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>0.2245</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1431</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0.2048</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.2562</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.1714</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0.18595</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0.0702499999999999</v>
+      </c>
+      <c r="N386" t="n">
+        <v>0.3777897284216186</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>13</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>0</v>
+      </c>
+      <c r="G387" t="n">
+        <v>45</v>
+      </c>
+      <c r="H387" t="n">
+        <v>42</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0</v>
+      </c>
+      <c r="K387" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="L387" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="M387" t="n">
+        <v>-21.75</v>
+      </c>
+      <c r="N387" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>13</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>0</v>
+      </c>
+      <c r="G388" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H388" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0</v>
+      </c>
+      <c r="K388" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="L388" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M388" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="N388" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>13</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F389" t="n">
+        <v>0</v>
+      </c>
+      <c r="G389" t="n">
+        <v>524</v>
+      </c>
+      <c r="H389" t="n">
+        <v>1163</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0</v>
+      </c>
+      <c r="K389" t="n">
+        <v>337.4</v>
+      </c>
+      <c r="L389" t="n">
+        <v>421.75</v>
+      </c>
+      <c r="M389" t="n">
+        <v>-421.75</v>
+      </c>
+      <c r="N389" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>13</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F390" t="n">
+        <v>0</v>
+      </c>
+      <c r="G390" t="n">
+        <v>273</v>
+      </c>
+      <c r="H390" t="n">
+        <v>1092</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0</v>
+      </c>
+      <c r="K390" t="n">
+        <v>273</v>
+      </c>
+      <c r="L390" t="n">
+        <v>341.25</v>
+      </c>
+      <c r="M390" t="n">
+        <v>-341.25</v>
+      </c>
+      <c r="N390" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>13</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>0</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M391" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N391" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>13</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F392" t="n">
+        <v>69</v>
+      </c>
+      <c r="G392" t="n">
+        <v>67</v>
+      </c>
+      <c r="H392" t="n">
+        <v>68</v>
+      </c>
+      <c r="I392" t="n">
+        <v>64</v>
+      </c>
+      <c r="J392" t="n">
+        <v>70</v>
+      </c>
+      <c r="K392" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="L392" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M392" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="N392" t="n">
+        <v>-0.0656934306569343</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>13</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F393" t="n">
+        <v>5</v>
+      </c>
+      <c r="G393" t="n">
+        <v>6</v>
+      </c>
+      <c r="H393" t="n">
+        <v>3</v>
+      </c>
+      <c r="I393" t="n">
+        <v>3</v>
+      </c>
+      <c r="J393" t="n">
+        <v>5</v>
+      </c>
+      <c r="K393" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L393" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M393" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="N393" t="n">
+        <v>-0.3684210526315789</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>13</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F394" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G394" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H394" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I394" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J394" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K394" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L394" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>13</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F395" t="n">
+        <v>200</v>
+      </c>
+      <c r="G395" t="n">
+        <v>299.4</v>
+      </c>
+      <c r="H395" t="n">
+        <v>250</v>
+      </c>
+      <c r="I395" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="J395" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="K395" t="n">
+        <v>238.14</v>
+      </c>
+      <c r="L395" t="n">
+        <v>249.825</v>
+      </c>
+      <c r="M395" t="n">
+        <v>-58.42499999999998</v>
+      </c>
+      <c r="N395" t="n">
+        <v>-0.2338637045932152</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>13</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F396" t="n">
+        <v>2</v>
+      </c>
+      <c r="G396" t="n">
+        <v>3</v>
+      </c>
+      <c r="H396" t="n">
+        <v>2</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1</v>
+      </c>
+      <c r="J396" t="n">
+        <v>2</v>
+      </c>
+      <c r="K396" t="n">
+        <v>2</v>
+      </c>
+      <c r="L396" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M396" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="N396" t="n">
+        <v>-0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>13</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G397" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H397" t="n">
+        <v>7500</v>
+      </c>
+      <c r="I397" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J397" t="n">
+        <v>6750</v>
+      </c>
+      <c r="K397" t="n">
+        <v>6250</v>
+      </c>
+      <c r="L397" t="n">
+        <v>6312.5</v>
+      </c>
+      <c r="M397" t="n">
+        <v>-312.5</v>
+      </c>
+      <c r="N397" t="n">
+        <v>-0.0495049504950495</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>13</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>4210</v>
+      </c>
+      <c r="G398" t="n">
+        <v>1628</v>
+      </c>
+      <c r="H398" t="n">
+        <v>2982</v>
+      </c>
+      <c r="I398" t="n">
+        <v>995</v>
+      </c>
+      <c r="J398" t="n">
+        <v>3144</v>
+      </c>
+      <c r="K398" t="n">
+        <v>2591.8</v>
+      </c>
+      <c r="L398" t="n">
+        <v>2991</v>
+      </c>
+      <c r="M398" t="n">
+        <v>-1996</v>
+      </c>
+      <c r="N398" t="n">
+        <v>-0.6673353393513874</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>13</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G399" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H399" t="n">
+        <v>14000</v>
+      </c>
+      <c r="I399" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J399" t="n">
+        <v>13500</v>
+      </c>
+      <c r="K399" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L399" t="n">
+        <v>13125</v>
+      </c>
+      <c r="M399" t="n">
+        <v>-3125</v>
+      </c>
+      <c r="N399" t="n">
+        <v>-0.238095238095238</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>13</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>65</v>
+      </c>
+      <c r="G400" t="n">
+        <v>185</v>
+      </c>
+      <c r="H400" t="n">
+        <v>50</v>
+      </c>
+      <c r="I400" t="n">
+        <v>150</v>
+      </c>
+      <c r="J400" t="n">
+        <v>45</v>
+      </c>
+      <c r="K400" t="n">
+        <v>99</v>
+      </c>
+      <c r="L400" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="M400" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="N400" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>13</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
+        <v>69</v>
+      </c>
+      <c r="G401" t="n">
+        <v>66</v>
+      </c>
+      <c r="H401" t="n">
+        <v>78</v>
+      </c>
+      <c r="I401" t="n">
+        <v>75</v>
+      </c>
+      <c r="J401" t="n">
+        <v>83</v>
+      </c>
+      <c r="K401" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="L401" t="n">
+        <v>74</v>
+      </c>
+      <c r="M401" t="n">
+        <v>1</v>
+      </c>
+      <c r="N401" t="n">
+        <v>0.0135135135135135</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>13</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F402" t="n">
+        <v>2202</v>
+      </c>
+      <c r="G402" t="n">
+        <v>1628</v>
+      </c>
+      <c r="H402" t="n">
+        <v>1931</v>
+      </c>
+      <c r="I402" t="n">
+        <v>1385</v>
+      </c>
+      <c r="J402" t="n">
+        <v>2034</v>
+      </c>
+      <c r="K402" t="n">
+        <v>1836</v>
+      </c>
+      <c r="L402" t="n">
+        <v>1948.75</v>
+      </c>
+      <c r="M402" t="n">
+        <v>-563.75</v>
+      </c>
+      <c r="N402" t="n">
+        <v>-0.2892880051314945</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>13</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F403" t="n">
+        <v>219</v>
+      </c>
+      <c r="G403" t="n">
+        <v>257</v>
+      </c>
+      <c r="H403" t="n">
+        <v>-108</v>
+      </c>
+      <c r="I403" t="n">
+        <v>-405</v>
+      </c>
+      <c r="J403" t="n">
+        <v>-55</v>
+      </c>
+      <c r="K403" t="n">
+        <v>-18.4</v>
+      </c>
+      <c r="L403" t="n">
+        <v>78.25</v>
+      </c>
+      <c r="M403" t="n">
+        <v>-483.25</v>
+      </c>
+      <c r="N403" t="n">
+        <v>-6.175718849840256</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>13</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F404" t="n">
+        <v>2421</v>
+      </c>
+      <c r="G404" t="n">
+        <v>1885</v>
+      </c>
+      <c r="H404" t="n">
+        <v>1823</v>
+      </c>
+      <c r="I404" t="n">
+        <v>980</v>
+      </c>
+      <c r="J404" t="n">
+        <v>1979</v>
+      </c>
+      <c r="K404" t="n">
+        <v>1817.6</v>
+      </c>
+      <c r="L404" t="n">
+        <v>2027</v>
+      </c>
+      <c r="M404" t="n">
+        <v>-1047</v>
+      </c>
+      <c r="N404" t="n">
+        <v>-0.5165268870251604</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>13</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>0.2664</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.2074</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0.2006</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.1078</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.2178</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0.22305</v>
+      </c>
+      <c r="M405" t="n">
+        <v>-0.1152499999999999</v>
+      </c>
+      <c r="N405" t="n">
+        <v>-0.516700291414481</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>13</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F406" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="G406" t="n">
+        <v>100</v>
+      </c>
+      <c r="H406" t="n">
+        <v>96</v>
+      </c>
+      <c r="I406" t="n">
+        <v>104</v>
+      </c>
+      <c r="J406" t="n">
+        <v>101</v>
+      </c>
+      <c r="K406" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L406" t="n">
+        <v>98.875</v>
+      </c>
+      <c r="M406" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="N406" t="n">
+        <v>0.0518331226295828</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>13</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F407" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G407" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H407" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I407" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J407" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K407" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L407" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>13</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F408" t="n">
+        <v>200</v>
+      </c>
+      <c r="G408" t="n">
+        <v>299.4</v>
+      </c>
+      <c r="H408" t="n">
+        <v>250</v>
+      </c>
+      <c r="I408" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="J408" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="K408" t="n">
+        <v>238.14</v>
+      </c>
+      <c r="L408" t="n">
+        <v>249.825</v>
+      </c>
+      <c r="M408" t="n">
+        <v>-58.42499999999998</v>
+      </c>
+      <c r="N408" t="n">
+        <v>-0.2338637045932152</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>13</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>1</v>
+      </c>
+      <c r="G409" t="n">
+        <v>1</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M409" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N409" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>13</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F410" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G410" t="n">
+        <v>8500</v>
+      </c>
+      <c r="H410" t="n">
+        <v>10500</v>
+      </c>
+      <c r="I410" t="n">
+        <v>8250</v>
+      </c>
+      <c r="J410" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K410" t="n">
+        <v>8550</v>
+      </c>
+      <c r="L410" t="n">
+        <v>8625</v>
+      </c>
+      <c r="M410" t="n">
+        <v>-375</v>
+      </c>
+      <c r="N410" t="n">
+        <v>-0.0434782608695652</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>13</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F411" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G411" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H411" t="n">
+        <v>14000</v>
+      </c>
+      <c r="I411" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J411" t="n">
+        <v>13500</v>
+      </c>
+      <c r="K411" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L411" t="n">
+        <v>13125</v>
+      </c>
+      <c r="M411" t="n">
+        <v>-3125</v>
+      </c>
+      <c r="N411" t="n">
+        <v>-0.238095238095238</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>13</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>65</v>
+      </c>
+      <c r="G412" t="n">
+        <v>185</v>
+      </c>
+      <c r="H412" t="n">
+        <v>50</v>
+      </c>
+      <c r="I412" t="n">
+        <v>150</v>
+      </c>
+      <c r="J412" t="n">
+        <v>45</v>
+      </c>
+      <c r="K412" t="n">
+        <v>99</v>
+      </c>
+      <c r="L412" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="M412" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="N412" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>13</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F413" t="n">
+        <v>69</v>
+      </c>
+      <c r="G413" t="n">
+        <v>66</v>
+      </c>
+      <c r="H413" t="n">
+        <v>78</v>
+      </c>
+      <c r="I413" t="n">
+        <v>75</v>
+      </c>
+      <c r="J413" t="n">
+        <v>83</v>
+      </c>
+      <c r="K413" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="L413" t="n">
+        <v>74</v>
+      </c>
+      <c r="M413" t="n">
+        <v>1</v>
+      </c>
+      <c r="N413" t="n">
+        <v>0.0135135135135135</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>13</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F414" t="n">
+        <v>404</v>
+      </c>
+      <c r="G414" t="n">
+        <v>518</v>
+      </c>
+      <c r="H414" t="n">
+        <v>442</v>
+      </c>
+      <c r="I414" t="n">
+        <v>277</v>
+      </c>
+      <c r="J414" t="n">
+        <v>359</v>
+      </c>
+      <c r="K414" t="n">
+        <v>400</v>
+      </c>
+      <c r="L414" t="n">
+        <v>430.75</v>
+      </c>
+      <c r="M414" t="n">
+        <v>-153.75</v>
+      </c>
+      <c r="N414" t="n">
+        <v>-0.3569355774811376</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>13</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F415" t="n">
+        <v>404</v>
+      </c>
+      <c r="G415" t="n">
+        <v>518</v>
+      </c>
+      <c r="H415" t="n">
+        <v>442</v>
+      </c>
+      <c r="I415" t="n">
+        <v>277</v>
+      </c>
+      <c r="J415" t="n">
+        <v>359</v>
+      </c>
+      <c r="K415" t="n">
+        <v>400</v>
+      </c>
+      <c r="L415" t="n">
+        <v>430.75</v>
+      </c>
+      <c r="M415" t="n">
+        <v>-153.75</v>
+      </c>
+      <c r="N415" t="n">
+        <v>-0.3569355774811376</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>13</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F416" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.1385</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.1795</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0.215375</v>
+      </c>
+      <c r="M416" t="n">
+        <v>-0.076875</v>
+      </c>
+      <c r="N416" t="n">
+        <v>-0.3569355774811375</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>13</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F417" t="n">
+        <v>0</v>
+      </c>
+      <c r="G417" t="n">
+        <v>45</v>
+      </c>
+      <c r="H417" t="n">
+        <v>44</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0</v>
+      </c>
+      <c r="K417" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L417" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="M417" t="n">
+        <v>-22.25</v>
+      </c>
+      <c r="N417" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>13</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F418" t="n">
+        <v>0</v>
+      </c>
+      <c r="G418" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H418" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0</v>
+      </c>
+      <c r="K418" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L418" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M418" t="n">
+        <v>-2.35</v>
+      </c>
+      <c r="N418" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>13</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F419" t="n">
+        <v>0</v>
+      </c>
+      <c r="G419" t="n">
+        <v>536</v>
+      </c>
+      <c r="H419" t="n">
+        <v>775</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0</v>
+      </c>
+      <c r="K419" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="L419" t="n">
+        <v>327.75</v>
+      </c>
+      <c r="M419" t="n">
+        <v>-327.75</v>
+      </c>
+      <c r="N419" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>13</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F420" t="n">
+        <v>0</v>
+      </c>
+      <c r="G420" t="n">
+        <v>536</v>
+      </c>
+      <c r="H420" t="n">
+        <v>775</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0</v>
+      </c>
+      <c r="K420" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="L420" t="n">
+        <v>327.75</v>
+      </c>
+      <c r="M420" t="n">
+        <v>-327.75</v>
+      </c>
+      <c r="N420" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>13</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F421" t="n">
+        <v>0</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.1921999999999999</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="M421" t="n">
+        <v>-0.24025</v>
+      </c>
+      <c r="N421" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>13</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F422" t="n">
+        <v>60</v>
+      </c>
+      <c r="G422" t="n">
+        <v>61</v>
+      </c>
+      <c r="H422" t="n">
+        <v>63</v>
+      </c>
+      <c r="I422" t="n">
+        <v>60</v>
+      </c>
+      <c r="J422" t="n">
+        <v>62</v>
+      </c>
+      <c r="K422" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="L422" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="M422" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N422" t="n">
+        <v>-0.024390243902439</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>13</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F423" t="n">
+        <v>5</v>
+      </c>
+      <c r="G423" t="n">
+        <v>4</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="n">
+        <v>4</v>
+      </c>
+      <c r="J423" t="n">
+        <v>5</v>
+      </c>
+      <c r="K423" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L423" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N423" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>13</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F424" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G424" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H424" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I424" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J424" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K424" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="L424" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0.1500000000000003</v>
+      </c>
+      <c r="N424" t="n">
+        <v>0.027027027027027</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>13</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F425" t="n">
+        <v>200</v>
+      </c>
+      <c r="G425" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="H425" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="I425" t="n">
+        <v>200</v>
+      </c>
+      <c r="J425" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="K425" t="n">
+        <v>238.82</v>
+      </c>
+      <c r="L425" t="n">
+        <v>248.525</v>
+      </c>
+      <c r="M425" t="n">
+        <v>-48.52500000000001</v>
+      </c>
+      <c r="N425" t="n">
+        <v>-0.1952519867216578</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>13</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F426" t="n">
+        <v>2</v>
+      </c>
+      <c r="G426" t="n">
+        <v>3</v>
+      </c>
+      <c r="H426" t="n">
+        <v>3</v>
+      </c>
+      <c r="I426" t="n">
+        <v>2</v>
+      </c>
+      <c r="J426" t="n">
+        <v>2</v>
+      </c>
+      <c r="K426" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L426" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M426" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N426" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>13</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F427" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G427" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H427" t="n">
+        <v>5750</v>
+      </c>
+      <c r="I427" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J427" t="n">
+        <v>5250</v>
+      </c>
+      <c r="K427" t="n">
+        <v>4700</v>
+      </c>
+      <c r="L427" t="n">
+        <v>4375</v>
+      </c>
+      <c r="M427" t="n">
+        <v>1625</v>
+      </c>
+      <c r="N427" t="n">
+        <v>0.3714285714285714</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>13</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F428" t="n">
+        <v>1949</v>
+      </c>
+      <c r="G428" t="n">
+        <v>607</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1192</v>
+      </c>
+      <c r="I428" t="n">
+        <v>3872</v>
+      </c>
+      <c r="J428" t="n">
+        <v>2139</v>
+      </c>
+      <c r="K428" t="n">
+        <v>1951.8</v>
+      </c>
+      <c r="L428" t="n">
+        <v>1471.75</v>
+      </c>
+      <c r="M428" t="n">
+        <v>2400.25</v>
+      </c>
+      <c r="N428" t="n">
+        <v>1.630881603533209</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>13</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F429" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G429" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H429" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I429" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J429" t="n">
+        <v>12500</v>
+      </c>
+      <c r="K429" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L429" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M429" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N429" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>13</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F430" t="n">
+        <v>60</v>
+      </c>
+      <c r="G430" t="n">
+        <v>130</v>
+      </c>
+      <c r="H430" t="n">
+        <v>60</v>
+      </c>
+      <c r="I430" t="n">
+        <v>160</v>
+      </c>
+      <c r="J430" t="n">
+        <v>100</v>
+      </c>
+      <c r="K430" t="n">
+        <v>102</v>
+      </c>
+      <c r="L430" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="M430" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="N430" t="n">
+        <v>0.8285714285714286</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>13</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F431" t="n">
+        <v>69</v>
+      </c>
+      <c r="G431" t="n">
+        <v>66</v>
+      </c>
+      <c r="H431" t="n">
+        <v>78</v>
+      </c>
+      <c r="I431" t="n">
+        <v>75</v>
+      </c>
+      <c r="J431" t="n">
+        <v>83</v>
+      </c>
+      <c r="K431" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="L431" t="n">
+        <v>74</v>
+      </c>
+      <c r="M431" t="n">
+        <v>1</v>
+      </c>
+      <c r="N431" t="n">
+        <v>0.0135135135135135</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>13</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F432" t="n">
+        <v>1494</v>
+      </c>
+      <c r="G432" t="n">
+        <v>1022</v>
+      </c>
+      <c r="H432" t="n">
+        <v>916</v>
+      </c>
+      <c r="I432" t="n">
+        <v>2407</v>
+      </c>
+      <c r="J432" t="n">
+        <v>1841</v>
+      </c>
+      <c r="K432" t="n">
+        <v>1536</v>
+      </c>
+      <c r="L432" t="n">
+        <v>1318.25</v>
+      </c>
+      <c r="M432" t="n">
+        <v>1088.75</v>
+      </c>
+      <c r="N432" t="n">
+        <v>0.8259055566091409</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>13</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F433" t="n">
+        <v>2</v>
+      </c>
+      <c r="G433" t="n">
+        <v>157</v>
+      </c>
+      <c r="H433" t="n">
+        <v>-25</v>
+      </c>
+      <c r="I433" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J433" t="n">
+        <v>-131</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L433" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M433" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="N433" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>13</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F434" t="n">
+        <v>1496</v>
+      </c>
+      <c r="G434" t="n">
+        <v>1179</v>
+      </c>
+      <c r="H434" t="n">
+        <v>891</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2404</v>
+      </c>
+      <c r="J434" t="n">
+        <v>1710</v>
+      </c>
+      <c r="K434" t="n">
+        <v>1536</v>
+      </c>
+      <c r="L434" t="n">
+        <v>1319</v>
+      </c>
+      <c r="M434" t="n">
+        <v>1085</v>
+      </c>
+      <c r="N434" t="n">
+        <v>0.8225928733889311</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>13</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F435" t="n">
+        <v>0.1948</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1535</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.2227</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L435" t="n">
+        <v>0.17175</v>
+      </c>
+      <c r="M435" t="n">
+        <v>0.14125</v>
+      </c>
+      <c r="N435" t="n">
+        <v>0.8224163027656476</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>13</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F436" t="n">
+        <v>89</v>
+      </c>
+      <c r="G436" t="n">
+        <v>90</v>
+      </c>
+      <c r="H436" t="n">
+        <v>89</v>
+      </c>
+      <c r="I436" t="n">
+        <v>97</v>
+      </c>
+      <c r="J436" t="n">
+        <v>93</v>
+      </c>
+      <c r="K436" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="L436" t="n">
+        <v>90.25</v>
+      </c>
+      <c r="M436" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="N436" t="n">
+        <v>0.074792243767313</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>13</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F437" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G437" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H437" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I437" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J437" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K437" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="L437" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="M437" t="n">
+        <v>0.1500000000000003</v>
+      </c>
+      <c r="N437" t="n">
+        <v>0.027027027027027</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>13</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F438" t="n">
+        <v>200</v>
+      </c>
+      <c r="G438" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="H438" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="I438" t="n">
+        <v>200</v>
+      </c>
+      <c r="J438" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="K438" t="n">
+        <v>238.82</v>
+      </c>
+      <c r="L438" t="n">
+        <v>248.525</v>
+      </c>
+      <c r="M438" t="n">
+        <v>-48.52500000000001</v>
+      </c>
+      <c r="N438" t="n">
+        <v>-0.1952519867216578</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>13</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F439" t="n">
+        <v>1</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="n">
+        <v>1</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L439" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M439" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N439" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>13</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F440" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G440" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H440" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I440" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J440" t="n">
+        <v>5500</v>
+      </c>
+      <c r="K440" t="n">
+        <v>5700</v>
+      </c>
+      <c r="L440" t="n">
+        <v>5125</v>
+      </c>
+      <c r="M440" t="n">
+        <v>2875</v>
+      </c>
+      <c r="N440" t="n">
+        <v>0.5609756097560976</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>13</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F441" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G441" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H441" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I441" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J441" t="n">
+        <v>12500</v>
+      </c>
+      <c r="K441" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L441" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M441" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N441" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>13</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F442" t="n">
+        <v>60</v>
+      </c>
+      <c r="G442" t="n">
+        <v>130</v>
+      </c>
+      <c r="H442" t="n">
+        <v>60</v>
+      </c>
+      <c r="I442" t="n">
+        <v>160</v>
+      </c>
+      <c r="J442" t="n">
+        <v>100</v>
+      </c>
+      <c r="K442" t="n">
+        <v>102</v>
+      </c>
+      <c r="L442" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="M442" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="N442" t="n">
+        <v>0.8285714285714286</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>13</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F443" t="n">
+        <v>69</v>
+      </c>
+      <c r="G443" t="n">
+        <v>66</v>
+      </c>
+      <c r="H443" t="n">
+        <v>78</v>
+      </c>
+      <c r="I443" t="n">
+        <v>75</v>
+      </c>
+      <c r="J443" t="n">
+        <v>83</v>
+      </c>
+      <c r="K443" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="L443" t="n">
+        <v>74</v>
+      </c>
+      <c r="M443" t="n">
+        <v>1</v>
+      </c>
+      <c r="N443" t="n">
+        <v>0.0135135135135135</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>13</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F444" t="n">
+        <v>392</v>
+      </c>
+      <c r="G444" t="n">
+        <v>237</v>
+      </c>
+      <c r="H444" t="n">
+        <v>285</v>
+      </c>
+      <c r="I444" t="n">
+        <v>421</v>
+      </c>
+      <c r="J444" t="n">
+        <v>354</v>
+      </c>
+      <c r="K444" t="n">
+        <v>337.8</v>
+      </c>
+      <c r="L444" t="n">
+        <v>317</v>
+      </c>
+      <c r="M444" t="n">
+        <v>104</v>
+      </c>
+      <c r="N444" t="n">
+        <v>0.3280757097791798</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>13</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F445" t="n">
+        <v>392</v>
+      </c>
+      <c r="G445" t="n">
+        <v>237</v>
+      </c>
+      <c r="H445" t="n">
+        <v>285</v>
+      </c>
+      <c r="I445" t="n">
+        <v>421</v>
+      </c>
+      <c r="J445" t="n">
+        <v>354</v>
+      </c>
+      <c r="K445" t="n">
+        <v>337.8</v>
+      </c>
+      <c r="L445" t="n">
+        <v>317</v>
+      </c>
+      <c r="M445" t="n">
+        <v>104</v>
+      </c>
+      <c r="N445" t="n">
+        <v>0.3280757097791798</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>13</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F446" t="n">
+        <v>0.2321</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1403</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0.1687</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.2493</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.2096</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L446" t="n">
+        <v>0.187675</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0.0616249999999999</v>
+      </c>
+      <c r="N446" t="n">
+        <v>0.3283601971493272</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>13</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F447" t="n">
+        <v>0</v>
+      </c>
+      <c r="G447" t="n">
+        <v>45</v>
+      </c>
+      <c r="H447" t="n">
+        <v>40</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0</v>
+      </c>
+      <c r="J447" t="n">
+        <v>39</v>
+      </c>
+      <c r="K447" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="L447" t="n">
+        <v>31</v>
+      </c>
+      <c r="M447" t="n">
+        <v>-31</v>
+      </c>
+      <c r="N447" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>13</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F448" t="n">
+        <v>0</v>
+      </c>
+      <c r="G448" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H448" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0</v>
+      </c>
+      <c r="J448" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K448" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="L448" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M448" t="n">
+        <v>-3.45</v>
+      </c>
+      <c r="N448" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>13</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F449" t="n">
+        <v>0</v>
+      </c>
+      <c r="G449" t="n">
+        <v>573</v>
+      </c>
+      <c r="H449" t="n">
+        <v>957</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0</v>
+      </c>
+      <c r="J449" t="n">
+        <v>394</v>
+      </c>
+      <c r="K449" t="n">
+        <v>384.8</v>
+      </c>
+      <c r="L449" t="n">
+        <v>481</v>
+      </c>
+      <c r="M449" t="n">
+        <v>-481</v>
+      </c>
+      <c r="N449" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>13</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F450" t="n">
+        <v>0</v>
+      </c>
+      <c r="G450" t="n">
+        <v>470</v>
+      </c>
+      <c r="H450" t="n">
+        <v>576</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0</v>
+      </c>
+      <c r="J450" t="n">
+        <v>394</v>
+      </c>
+      <c r="K450" t="n">
+        <v>288</v>
+      </c>
+      <c r="L450" t="n">
+        <v>360</v>
+      </c>
+      <c r="M450" t="n">
+        <v>-360</v>
+      </c>
+      <c r="N450" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>13</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F451" t="n">
+        <v>0</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L451" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M451" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N451" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>13</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F452" t="n">
+        <v>65</v>
+      </c>
+      <c r="G452" t="n">
+        <v>67</v>
+      </c>
+      <c r="H452" t="n">
+        <v>63</v>
+      </c>
+      <c r="I452" t="n">
+        <v>65</v>
+      </c>
+      <c r="J452" t="n">
+        <v>66</v>
+      </c>
+      <c r="K452" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="L452" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="M452" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N452" t="n">
+        <v>-0.003831417624521</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>13</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F453" t="n">
+        <v>4</v>
+      </c>
+      <c r="G453" t="n">
+        <v>6</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="n">
+        <v>4</v>
+      </c>
+      <c r="J453" t="n">
+        <v>5</v>
+      </c>
+      <c r="K453" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L453" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M453" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N453" t="n">
+        <v>0.0666666666666666</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>13</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F454" t="n">
+        <v>5</v>
+      </c>
+      <c r="G454" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H454" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I454" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J454" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K454" t="n">
+        <v>5.700000000000001</v>
+      </c>
+      <c r="L454" t="n">
+        <v>5.725000000000001</v>
+      </c>
+      <c r="M454" t="n">
+        <v>-0.1250000000000009</v>
+      </c>
+      <c r="N454" t="n">
+        <v>-0.0218340611353713</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>13</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F455" t="n">
+        <v>200</v>
+      </c>
+      <c r="G455" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="H455" t="n">
+        <v>250</v>
+      </c>
+      <c r="I455" t="n">
+        <v>200</v>
+      </c>
+      <c r="J455" t="n">
+        <v>250</v>
+      </c>
+      <c r="K455" t="n">
+        <v>239.94</v>
+      </c>
+      <c r="L455" t="n">
+        <v>249.925</v>
+      </c>
+      <c r="M455" t="n">
+        <v>-49.92500000000001</v>
+      </c>
+      <c r="N455" t="n">
+        <v>-0.1997599279783935</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>13</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F456" t="n">
+        <v>2</v>
+      </c>
+      <c r="G456" t="n">
+        <v>3</v>
+      </c>
+      <c r="H456" t="n">
+        <v>3</v>
+      </c>
+      <c r="I456" t="n">
+        <v>2</v>
+      </c>
+      <c r="J456" t="n">
+        <v>3</v>
+      </c>
+      <c r="K456" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L456" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M456" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="N456" t="n">
+        <v>-0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>13</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F457" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G457" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H457" t="n">
+        <v>4750</v>
+      </c>
+      <c r="I457" t="n">
+        <v>7000</v>
+      </c>
+      <c r="J457" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K457" t="n">
+        <v>4350</v>
+      </c>
+      <c r="L457" t="n">
+        <v>3687.5</v>
+      </c>
+      <c r="M457" t="n">
+        <v>3312.5</v>
+      </c>
+      <c r="N457" t="n">
+        <v>0.8983050847457628</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>13</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F458" t="n">
+        <v>1734</v>
+      </c>
+      <c r="G458" t="n">
+        <v>569</v>
+      </c>
+      <c r="H458" t="n">
+        <v>792</v>
+      </c>
+      <c r="I458" t="n">
+        <v>1696</v>
+      </c>
+      <c r="J458" t="n">
+        <v>1126</v>
+      </c>
+      <c r="K458" t="n">
+        <v>1183.4</v>
+      </c>
+      <c r="L458" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="M458" t="n">
+        <v>640.75</v>
+      </c>
+      <c r="N458" t="n">
+        <v>0.6072020848140252</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>13</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F459" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G459" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H459" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I459" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J459" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K459" t="n">
+        <v>9800</v>
+      </c>
+      <c r="L459" t="n">
+        <v>9750</v>
+      </c>
+      <c r="M459" t="n">
+        <v>250</v>
+      </c>
+      <c r="N459" t="n">
+        <v>0.0256410256410256</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>13</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F460" t="n">
+        <v>40</v>
+      </c>
+      <c r="G460" t="n">
+        <v>155</v>
+      </c>
+      <c r="H460" t="n">
+        <v>95</v>
+      </c>
+      <c r="I460" t="n">
+        <v>135</v>
+      </c>
+      <c r="J460" t="n">
+        <v>65</v>
+      </c>
+      <c r="K460" t="n">
+        <v>98</v>
+      </c>
+      <c r="L460" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="M460" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="N460" t="n">
+        <v>0.5211267605633803</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>13</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F461" t="n">
+        <v>69</v>
+      </c>
+      <c r="G461" t="n">
+        <v>66</v>
+      </c>
+      <c r="H461" t="n">
+        <v>78</v>
+      </c>
+      <c r="I461" t="n">
+        <v>75</v>
+      </c>
+      <c r="J461" t="n">
+        <v>83</v>
+      </c>
+      <c r="K461" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="L461" t="n">
+        <v>74</v>
+      </c>
+      <c r="M461" t="n">
+        <v>1</v>
+      </c>
+      <c r="N461" t="n">
+        <v>0.0135135135135135</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>13</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F462" t="n">
+        <v>1426</v>
+      </c>
+      <c r="G462" t="n">
+        <v>1699</v>
+      </c>
+      <c r="H462" t="n">
+        <v>1276</v>
+      </c>
+      <c r="I462" t="n">
+        <v>1875</v>
+      </c>
+      <c r="J462" t="n">
+        <v>1564</v>
+      </c>
+      <c r="K462" t="n">
+        <v>1568</v>
+      </c>
+      <c r="L462" t="n">
+        <v>1491.25</v>
+      </c>
+      <c r="M462" t="n">
+        <v>383.75</v>
+      </c>
+      <c r="N462" t="n">
+        <v>0.2573344509639564</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>13</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F463" t="n">
+        <v>72</v>
+      </c>
+      <c r="G463" t="n">
+        <v>86</v>
+      </c>
+      <c r="H463" t="n">
+        <v>-166</v>
+      </c>
+      <c r="I463" t="n">
+        <v>-70</v>
+      </c>
+      <c r="J463" t="n">
+        <v>79</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L463" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="M463" t="n">
+        <v>-87.75</v>
+      </c>
+      <c r="N463" t="n">
+        <v>-4.943661971830986</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>13</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F464" t="n">
+        <v>1498</v>
+      </c>
+      <c r="G464" t="n">
+        <v>1785</v>
+      </c>
+      <c r="H464" t="n">
+        <v>1110</v>
+      </c>
+      <c r="I464" t="n">
+        <v>1805</v>
+      </c>
+      <c r="J464" t="n">
+        <v>1643</v>
+      </c>
+      <c r="K464" t="n">
+        <v>1568.2</v>
+      </c>
+      <c r="L464" t="n">
+        <v>1509</v>
+      </c>
+      <c r="M464" t="n">
+        <v>296</v>
+      </c>
+      <c r="N464" t="n">
+        <v>0.196156394963552</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>13</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F465" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.2276</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0.1416</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0.2302</v>
+      </c>
+      <c r="J465" t="n">
+        <v>0.2095</v>
+      </c>
+      <c r="K465" t="n">
+        <v>0.19998</v>
+      </c>
+      <c r="L465" t="n">
+        <v>0.192425</v>
+      </c>
+      <c r="M465" t="n">
+        <v>0.0377749999999999</v>
+      </c>
+      <c r="N465" t="n">
+        <v>0.1963102507470441</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>13</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F466" t="n">
+        <v>92</v>
+      </c>
+      <c r="G466" t="n">
+        <v>100</v>
+      </c>
+      <c r="H466" t="n">
+        <v>89</v>
+      </c>
+      <c r="I466" t="n">
+        <v>105</v>
+      </c>
+      <c r="J466" t="n">
+        <v>99</v>
+      </c>
+      <c r="K466" t="n">
+        <v>97</v>
+      </c>
+      <c r="L466" t="n">
+        <v>95</v>
+      </c>
+      <c r="M466" t="n">
+        <v>10</v>
+      </c>
+      <c r="N466" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>13</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F467" t="n">
+        <v>5</v>
+      </c>
+      <c r="G467" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H467" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I467" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J467" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K467" t="n">
+        <v>5.700000000000001</v>
+      </c>
+      <c r="L467" t="n">
+        <v>5.725000000000001</v>
+      </c>
+      <c r="M467" t="n">
+        <v>-0.1250000000000009</v>
+      </c>
+      <c r="N467" t="n">
+        <v>-0.0218340611353713</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>13</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F468" t="n">
+        <v>200</v>
+      </c>
+      <c r="G468" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="H468" t="n">
+        <v>250</v>
+      </c>
+      <c r="I468" t="n">
+        <v>200</v>
+      </c>
+      <c r="J468" t="n">
+        <v>250</v>
+      </c>
+      <c r="K468" t="n">
+        <v>239.94</v>
+      </c>
+      <c r="L468" t="n">
+        <v>249.925</v>
+      </c>
+      <c r="M468" t="n">
+        <v>-49.92500000000001</v>
+      </c>
+      <c r="N468" t="n">
+        <v>-0.1997599279783935</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>13</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F469" t="n">
+        <v>1</v>
+      </c>
+      <c r="G469" t="n">
+        <v>1</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0</v>
+      </c>
+      <c r="K469" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M469" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N469" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>13</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F470" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G470" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H470" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I470" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J470" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K470" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L470" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M470" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N470" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>13</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F471" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G471" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H471" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I471" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J471" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K471" t="n">
+        <v>9800</v>
+      </c>
+      <c r="L471" t="n">
+        <v>9750</v>
+      </c>
+      <c r="M471" t="n">
+        <v>250</v>
+      </c>
+      <c r="N471" t="n">
+        <v>0.0256410256410256</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>13</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F472" t="n">
+        <v>40</v>
+      </c>
+      <c r="G472" t="n">
+        <v>155</v>
+      </c>
+      <c r="H472" t="n">
+        <v>95</v>
+      </c>
+      <c r="I472" t="n">
+        <v>135</v>
+      </c>
+      <c r="J472" t="n">
+        <v>65</v>
+      </c>
+      <c r="K472" t="n">
+        <v>98</v>
+      </c>
+      <c r="L472" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="M472" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="N472" t="n">
+        <v>0.5211267605633803</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>13</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F473" t="n">
+        <v>69</v>
+      </c>
+      <c r="G473" t="n">
+        <v>66</v>
+      </c>
+      <c r="H473" t="n">
+        <v>78</v>
+      </c>
+      <c r="I473" t="n">
+        <v>75</v>
+      </c>
+      <c r="J473" t="n">
+        <v>83</v>
+      </c>
+      <c r="K473" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="L473" t="n">
+        <v>74</v>
+      </c>
+      <c r="M473" t="n">
+        <v>1</v>
+      </c>
+      <c r="N473" t="n">
+        <v>0.0135135135135135</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>13</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F474" t="n">
+        <v>314</v>
+      </c>
+      <c r="G474" t="n">
+        <v>433</v>
+      </c>
+      <c r="H474" t="n">
+        <v>364</v>
+      </c>
+      <c r="I474" t="n">
+        <v>263</v>
+      </c>
+      <c r="J474" t="n">
+        <v>296</v>
+      </c>
+      <c r="K474" t="n">
+        <v>334</v>
+      </c>
+      <c r="L474" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="M474" t="n">
+        <v>-88.75</v>
+      </c>
+      <c r="N474" t="n">
+        <v>-0.2523098791755508</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>13</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F475" t="n">
+        <v>314</v>
+      </c>
+      <c r="G475" t="n">
+        <v>433</v>
+      </c>
+      <c r="H475" t="n">
+        <v>364</v>
+      </c>
+      <c r="I475" t="n">
+        <v>263</v>
+      </c>
+      <c r="J475" t="n">
+        <v>296</v>
+      </c>
+      <c r="K475" t="n">
+        <v>334</v>
+      </c>
+      <c r="L475" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="M475" t="n">
+        <v>-88.75</v>
+      </c>
+      <c r="N475" t="n">
+        <v>-0.2523098791755508</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>13</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F476" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.2593</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.1575</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0.1772</v>
+      </c>
+      <c r="K476" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L476" t="n">
+        <v>0.210625</v>
+      </c>
+      <c r="M476" t="n">
+        <v>-0.053125</v>
+      </c>
+      <c r="N476" t="n">
+        <v>-0.2522255192878338</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>13</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F477" t="n">
+        <v>0</v>
+      </c>
+      <c r="G477" t="n">
+        <v>50</v>
+      </c>
+      <c r="H477" t="n">
+        <v>40</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0</v>
+      </c>
+      <c r="J477" t="n">
+        <v>0</v>
+      </c>
+      <c r="K477" t="n">
+        <v>18</v>
+      </c>
+      <c r="L477" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M477" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="N477" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>13</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F478" t="n">
+        <v>0</v>
+      </c>
+      <c r="G478" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H478" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0</v>
+      </c>
+      <c r="K478" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L478" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="M478" t="n">
+        <v>-2.275</v>
+      </c>
+      <c r="N478" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>13</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F479" t="n">
+        <v>0</v>
+      </c>
+      <c r="G479" t="n">
+        <v>524</v>
+      </c>
+      <c r="H479" t="n">
+        <v>191</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0</v>
+      </c>
+      <c r="J479" t="n">
+        <v>0</v>
+      </c>
+      <c r="K479" t="n">
+        <v>143</v>
+      </c>
+      <c r="L479" t="n">
+        <v>178.75</v>
+      </c>
+      <c r="M479" t="n">
+        <v>-178.75</v>
+      </c>
+      <c r="N479" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>13</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F480" t="n">
+        <v>0</v>
+      </c>
+      <c r="G480" t="n">
+        <v>524</v>
+      </c>
+      <c r="H480" t="n">
+        <v>191</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0</v>
+      </c>
+      <c r="K480" t="n">
+        <v>143</v>
+      </c>
+      <c r="L480" t="n">
+        <v>178.75</v>
+      </c>
+      <c r="M480" t="n">
+        <v>-178.75</v>
+      </c>
+      <c r="N480" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>13</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F481" t="n">
+        <v>0</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0</v>
+      </c>
+      <c r="K481" t="n">
+        <v>0.0994</v>
+      </c>
+      <c r="L481" t="n">
+        <v>0.12425</v>
+      </c>
+      <c r="M481" t="n">
+        <v>-0.12425</v>
+      </c>
+      <c r="N481" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/accumulated/ci_acumulado.xlsx
+++ b/data/accumulated/ci_acumulado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N481"/>
+  <dimension ref="A1:N601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25415,6 +25415,6240 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>14</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F482" t="n">
+        <v>60</v>
+      </c>
+      <c r="G482" t="n">
+        <v>63</v>
+      </c>
+      <c r="H482" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="I482" t="n">
+        <v>66</v>
+      </c>
+      <c r="J482" t="n">
+        <v>68</v>
+      </c>
+      <c r="K482" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="L482" t="n">
+        <v>66.875</v>
+      </c>
+      <c r="M482" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="N482" t="n">
+        <v>-0.0130841121495327</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>14</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F483" t="n">
+        <v>5</v>
+      </c>
+      <c r="G483" t="n">
+        <v>4</v>
+      </c>
+      <c r="H483" t="n">
+        <v>3</v>
+      </c>
+      <c r="I483" t="n">
+        <v>4</v>
+      </c>
+      <c r="J483" t="n">
+        <v>5</v>
+      </c>
+      <c r="K483" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L483" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M483" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N483" t="n">
+        <v>-0.0588235294117647</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>14</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F484" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G484" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H484" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I484" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J484" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K484" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L484" t="n">
+        <v>6.000000000000001</v>
+      </c>
+      <c r="M484" t="n">
+        <v>0.2999999999999989</v>
+      </c>
+      <c r="N484" t="n">
+        <v>0.0499999999999998</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>14</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F485" t="n">
+        <v>244.2</v>
+      </c>
+      <c r="G485" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="H485" t="n">
+        <v>297.9</v>
+      </c>
+      <c r="I485" t="n">
+        <v>249</v>
+      </c>
+      <c r="J485" t="n">
+        <v>250</v>
+      </c>
+      <c r="K485" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="L485" t="n">
+        <v>273</v>
+      </c>
+      <c r="M485" t="n">
+        <v>-24</v>
+      </c>
+      <c r="N485" t="n">
+        <v>-0.08791208791208791</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>14</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F486" t="n">
+        <v>3</v>
+      </c>
+      <c r="G486" t="n">
+        <v>3</v>
+      </c>
+      <c r="H486" t="n">
+        <v>2</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2</v>
+      </c>
+      <c r="J486" t="n">
+        <v>2</v>
+      </c>
+      <c r="K486" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L486" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M486" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N486" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>14</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F487" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G487" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H487" t="n">
+        <v>9500</v>
+      </c>
+      <c r="I487" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J487" t="n">
+        <v>7750</v>
+      </c>
+      <c r="K487" t="n">
+        <v>6150</v>
+      </c>
+      <c r="L487" t="n">
+        <v>5812.5</v>
+      </c>
+      <c r="M487" t="n">
+        <v>1687.5</v>
+      </c>
+      <c r="N487" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>14</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F488" t="n">
+        <v>1973</v>
+      </c>
+      <c r="G488" t="n">
+        <v>810</v>
+      </c>
+      <c r="H488" t="n">
+        <v>3388</v>
+      </c>
+      <c r="I488" t="n">
+        <v>5070</v>
+      </c>
+      <c r="J488" t="n">
+        <v>4209</v>
+      </c>
+      <c r="K488" t="n">
+        <v>3090</v>
+      </c>
+      <c r="L488" t="n">
+        <v>2595</v>
+      </c>
+      <c r="M488" t="n">
+        <v>2475</v>
+      </c>
+      <c r="N488" t="n">
+        <v>0.953757225433526</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>14</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F489" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G489" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H489" t="n">
+        <v>18000</v>
+      </c>
+      <c r="I489" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J489" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K489" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L489" t="n">
+        <v>13750</v>
+      </c>
+      <c r="M489" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N489" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>14</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F490" t="n">
+        <v>0</v>
+      </c>
+      <c r="G490" t="n">
+        <v>40</v>
+      </c>
+      <c r="H490" t="n">
+        <v>60</v>
+      </c>
+      <c r="I490" t="n">
+        <v>160</v>
+      </c>
+      <c r="J490" t="n">
+        <v>230</v>
+      </c>
+      <c r="K490" t="n">
+        <v>98</v>
+      </c>
+      <c r="L490" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="M490" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="N490" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>14</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F491" t="n">
+        <v>64</v>
+      </c>
+      <c r="G491" t="n">
+        <v>73</v>
+      </c>
+      <c r="H491" t="n">
+        <v>80</v>
+      </c>
+      <c r="I491" t="n">
+        <v>78</v>
+      </c>
+      <c r="J491" t="n">
+        <v>84</v>
+      </c>
+      <c r="K491" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="L491" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="M491" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N491" t="n">
+        <v>0.0365448504983388</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>14</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F492" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G492" t="n">
+        <v>1291</v>
+      </c>
+      <c r="H492" t="n">
+        <v>1896</v>
+      </c>
+      <c r="I492" t="n">
+        <v>3204</v>
+      </c>
+      <c r="J492" t="n">
+        <v>2994</v>
+      </c>
+      <c r="K492" t="n">
+        <v>2229</v>
+      </c>
+      <c r="L492" t="n">
+        <v>1985.25</v>
+      </c>
+      <c r="M492" t="n">
+        <v>1218.75</v>
+      </c>
+      <c r="N492" t="n">
+        <v>0.6139025311673593</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>14</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F493" t="n">
+        <v>10</v>
+      </c>
+      <c r="G493" t="n">
+        <v>7</v>
+      </c>
+      <c r="H493" t="n">
+        <v>9</v>
+      </c>
+      <c r="I493" t="n">
+        <v>18</v>
+      </c>
+      <c r="J493" t="n">
+        <v>-44</v>
+      </c>
+      <c r="K493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L493" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="M493" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N493" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>14</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F494" t="n">
+        <v>1770</v>
+      </c>
+      <c r="G494" t="n">
+        <v>1298</v>
+      </c>
+      <c r="H494" t="n">
+        <v>1905</v>
+      </c>
+      <c r="I494" t="n">
+        <v>3222</v>
+      </c>
+      <c r="J494" t="n">
+        <v>2950</v>
+      </c>
+      <c r="K494" t="n">
+        <v>2229</v>
+      </c>
+      <c r="L494" t="n">
+        <v>1980.75</v>
+      </c>
+      <c r="M494" t="n">
+        <v>1241.25</v>
+      </c>
+      <c r="N494" t="n">
+        <v>0.6266565694812571</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>14</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>0.1588</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0.1709</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0.2891</v>
+      </c>
+      <c r="J495" t="n">
+        <v>0.2647</v>
+      </c>
+      <c r="K495" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L495" t="n">
+        <v>0.177725</v>
+      </c>
+      <c r="M495" t="n">
+        <v>0.111375</v>
+      </c>
+      <c r="N495" t="n">
+        <v>0.6266704177802787</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>14</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>90</v>
+      </c>
+      <c r="G496" t="n">
+        <v>94</v>
+      </c>
+      <c r="H496" t="n">
+        <v>109</v>
+      </c>
+      <c r="I496" t="n">
+        <v>106</v>
+      </c>
+      <c r="J496" t="n">
+        <v>101</v>
+      </c>
+      <c r="K496" t="n">
+        <v>100</v>
+      </c>
+      <c r="L496" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="M496" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N496" t="n">
+        <v>0.0761421319796954</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>14</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F497" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G497" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H497" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I497" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J497" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K497" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L497" t="n">
+        <v>6.000000000000001</v>
+      </c>
+      <c r="M497" t="n">
+        <v>0.2999999999999989</v>
+      </c>
+      <c r="N497" t="n">
+        <v>0.0499999999999998</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>14</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F498" t="n">
+        <v>244.2</v>
+      </c>
+      <c r="G498" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="H498" t="n">
+        <v>297.9</v>
+      </c>
+      <c r="I498" t="n">
+        <v>249</v>
+      </c>
+      <c r="J498" t="n">
+        <v>250</v>
+      </c>
+      <c r="K498" t="n">
+        <v>268.2</v>
+      </c>
+      <c r="L498" t="n">
+        <v>273</v>
+      </c>
+      <c r="M498" t="n">
+        <v>-24</v>
+      </c>
+      <c r="N498" t="n">
+        <v>-0.08791208791208791</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>14</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>1</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0</v>
+      </c>
+      <c r="H499" t="n">
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>1</v>
+      </c>
+      <c r="J499" t="n">
+        <v>0</v>
+      </c>
+      <c r="K499" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L499" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M499" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>14</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F500" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G500" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H500" t="n">
+        <v>14000</v>
+      </c>
+      <c r="I500" t="n">
+        <v>13000</v>
+      </c>
+      <c r="J500" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K500" t="n">
+        <v>10100</v>
+      </c>
+      <c r="L500" t="n">
+        <v>9375</v>
+      </c>
+      <c r="M500" t="n">
+        <v>3625</v>
+      </c>
+      <c r="N500" t="n">
+        <v>0.3866666666666666</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>14</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G501" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H501" t="n">
+        <v>18000</v>
+      </c>
+      <c r="I501" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J501" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K501" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L501" t="n">
+        <v>13750</v>
+      </c>
+      <c r="M501" t="n">
+        <v>1250</v>
+      </c>
+      <c r="N501" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>14</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F502" t="n">
+        <v>0</v>
+      </c>
+      <c r="G502" t="n">
+        <v>40</v>
+      </c>
+      <c r="H502" t="n">
+        <v>60</v>
+      </c>
+      <c r="I502" t="n">
+        <v>160</v>
+      </c>
+      <c r="J502" t="n">
+        <v>230</v>
+      </c>
+      <c r="K502" t="n">
+        <v>98</v>
+      </c>
+      <c r="L502" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="M502" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="N502" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>14</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>64</v>
+      </c>
+      <c r="G503" t="n">
+        <v>73</v>
+      </c>
+      <c r="H503" t="n">
+        <v>80</v>
+      </c>
+      <c r="I503" t="n">
+        <v>78</v>
+      </c>
+      <c r="J503" t="n">
+        <v>84</v>
+      </c>
+      <c r="K503" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="L503" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="M503" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N503" t="n">
+        <v>0.0365448504983388</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>14</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F504" t="n">
+        <v>575</v>
+      </c>
+      <c r="G504" t="n">
+        <v>304</v>
+      </c>
+      <c r="H504" t="n">
+        <v>624</v>
+      </c>
+      <c r="I504" t="n">
+        <v>603</v>
+      </c>
+      <c r="J504" t="n">
+        <v>534</v>
+      </c>
+      <c r="K504" t="n">
+        <v>528</v>
+      </c>
+      <c r="L504" t="n">
+        <v>509.25</v>
+      </c>
+      <c r="M504" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="N504" t="n">
+        <v>0.1840942562592047</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>14</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>575</v>
+      </c>
+      <c r="G505" t="n">
+        <v>304</v>
+      </c>
+      <c r="H505" t="n">
+        <v>624</v>
+      </c>
+      <c r="I505" t="n">
+        <v>603</v>
+      </c>
+      <c r="J505" t="n">
+        <v>534</v>
+      </c>
+      <c r="K505" t="n">
+        <v>528</v>
+      </c>
+      <c r="L505" t="n">
+        <v>509.25</v>
+      </c>
+      <c r="M505" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="N505" t="n">
+        <v>0.1840942562592047</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>14</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>0.2178</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.1152</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.2364</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0.2284</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0.2023</v>
+      </c>
+      <c r="K506" t="n">
+        <v>0.2000199999999999</v>
+      </c>
+      <c r="L506" t="n">
+        <v>0.1929249999999999</v>
+      </c>
+      <c r="M506" t="n">
+        <v>0.035475</v>
+      </c>
+      <c r="N506" t="n">
+        <v>0.1838797460152909</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>14</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F507" t="n">
+        <v>0</v>
+      </c>
+      <c r="G507" t="n">
+        <v>45</v>
+      </c>
+      <c r="H507" t="n">
+        <v>72</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0</v>
+      </c>
+      <c r="K507" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="L507" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="M507" t="n">
+        <v>-29.25</v>
+      </c>
+      <c r="N507" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>14</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>0</v>
+      </c>
+      <c r="G508" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H508" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0</v>
+      </c>
+      <c r="K508" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="L508" t="n">
+        <v>2.325</v>
+      </c>
+      <c r="M508" t="n">
+        <v>-2.325</v>
+      </c>
+      <c r="N508" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>14</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F509" t="n">
+        <v>0</v>
+      </c>
+      <c r="G509" t="n">
+        <v>429</v>
+      </c>
+      <c r="H509" t="n">
+        <v>1169</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0</v>
+      </c>
+      <c r="J509" t="n">
+        <v>0</v>
+      </c>
+      <c r="K509" t="n">
+        <v>319.6</v>
+      </c>
+      <c r="L509" t="n">
+        <v>399.5</v>
+      </c>
+      <c r="M509" t="n">
+        <v>-399.5</v>
+      </c>
+      <c r="N509" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>14</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>0</v>
+      </c>
+      <c r="G510" t="n">
+        <v>429</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0</v>
+      </c>
+      <c r="K510" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="L510" t="n">
+        <v>107.25</v>
+      </c>
+      <c r="M510" t="n">
+        <v>-107.25</v>
+      </c>
+      <c r="N510" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>14</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>0</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0</v>
+      </c>
+      <c r="K511" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="L511" t="n">
+        <v>0.07074999999999999</v>
+      </c>
+      <c r="M511" t="n">
+        <v>-0.07074999999999999</v>
+      </c>
+      <c r="N511" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>14</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>66</v>
+      </c>
+      <c r="G512" t="n">
+        <v>69</v>
+      </c>
+      <c r="H512" t="n">
+        <v>81</v>
+      </c>
+      <c r="I512" t="n">
+        <v>72</v>
+      </c>
+      <c r="J512" t="n">
+        <v>73</v>
+      </c>
+      <c r="K512" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="L512" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="M512" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N512" t="n">
+        <v>-0.0034602076124567</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>14</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>4</v>
+      </c>
+      <c r="G513" t="n">
+        <v>6</v>
+      </c>
+      <c r="H513" t="n">
+        <v>3</v>
+      </c>
+      <c r="I513" t="n">
+        <v>3</v>
+      </c>
+      <c r="J513" t="n">
+        <v>5</v>
+      </c>
+      <c r="K513" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L513" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M513" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N513" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>14</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H514" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I514" t="n">
+        <v>6</v>
+      </c>
+      <c r="J514" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K514" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="L514" t="n">
+        <v>5.825</v>
+      </c>
+      <c r="M514" t="n">
+        <v>0.1749999999999998</v>
+      </c>
+      <c r="N514" t="n">
+        <v>0.0300429184549355</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>14</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>279.9</v>
+      </c>
+      <c r="G515" t="n">
+        <v>300</v>
+      </c>
+      <c r="H515" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="I515" t="n">
+        <v>213.2</v>
+      </c>
+      <c r="J515" t="n">
+        <v>250</v>
+      </c>
+      <c r="K515" t="n">
+        <v>268.12</v>
+      </c>
+      <c r="L515" t="n">
+        <v>281.85</v>
+      </c>
+      <c r="M515" t="n">
+        <v>-68.65000000000003</v>
+      </c>
+      <c r="N515" t="n">
+        <v>-0.2435692744367572</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>14</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>2</v>
+      </c>
+      <c r="G516" t="n">
+        <v>2</v>
+      </c>
+      <c r="H516" t="n">
+        <v>2</v>
+      </c>
+      <c r="I516" t="n">
+        <v>2</v>
+      </c>
+      <c r="J516" t="n">
+        <v>2</v>
+      </c>
+      <c r="K516" t="n">
+        <v>2</v>
+      </c>
+      <c r="L516" t="n">
+        <v>2</v>
+      </c>
+      <c r="M516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>14</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G517" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H517" t="n">
+        <v>9500</v>
+      </c>
+      <c r="I517" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J517" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K517" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L517" t="n">
+        <v>6625</v>
+      </c>
+      <c r="M517" t="n">
+        <v>-625</v>
+      </c>
+      <c r="N517" t="n">
+        <v>-0.0943396226415094</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>14</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>4217</v>
+      </c>
+      <c r="G518" t="n">
+        <v>1388</v>
+      </c>
+      <c r="H518" t="n">
+        <v>3624</v>
+      </c>
+      <c r="I518" t="n">
+        <v>2065</v>
+      </c>
+      <c r="J518" t="n">
+        <v>3628</v>
+      </c>
+      <c r="K518" t="n">
+        <v>2984.4</v>
+      </c>
+      <c r="L518" t="n">
+        <v>3214.25</v>
+      </c>
+      <c r="M518" t="n">
+        <v>-1149.25</v>
+      </c>
+      <c r="N518" t="n">
+        <v>-0.3575484172046356</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>14</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G519" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H519" t="n">
+        <v>17000</v>
+      </c>
+      <c r="I519" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J519" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K519" t="n">
+        <v>14400</v>
+      </c>
+      <c r="L519" t="n">
+        <v>15750</v>
+      </c>
+      <c r="M519" t="n">
+        <v>-6750</v>
+      </c>
+      <c r="N519" t="n">
+        <v>-0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>14</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F520" t="n">
+        <v>0</v>
+      </c>
+      <c r="G520" t="n">
+        <v>85</v>
+      </c>
+      <c r="H520" t="n">
+        <v>50</v>
+      </c>
+      <c r="I520" t="n">
+        <v>145</v>
+      </c>
+      <c r="J520" t="n">
+        <v>215</v>
+      </c>
+      <c r="K520" t="n">
+        <v>99</v>
+      </c>
+      <c r="L520" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="M520" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="N520" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>14</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F521" t="n">
+        <v>64</v>
+      </c>
+      <c r="G521" t="n">
+        <v>73</v>
+      </c>
+      <c r="H521" t="n">
+        <v>80</v>
+      </c>
+      <c r="I521" t="n">
+        <v>78</v>
+      </c>
+      <c r="J521" t="n">
+        <v>84</v>
+      </c>
+      <c r="K521" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="L521" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="M521" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N521" t="n">
+        <v>0.0365448504983388</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>14</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F522" t="n">
+        <v>2586</v>
+      </c>
+      <c r="G522" t="n">
+        <v>1635</v>
+      </c>
+      <c r="H522" t="n">
+        <v>1757</v>
+      </c>
+      <c r="I522" t="n">
+        <v>1091</v>
+      </c>
+      <c r="J522" t="n">
+        <v>2317</v>
+      </c>
+      <c r="K522" t="n">
+        <v>1877.2</v>
+      </c>
+      <c r="L522" t="n">
+        <v>2073.75</v>
+      </c>
+      <c r="M522" t="n">
+        <v>-982.75</v>
+      </c>
+      <c r="N522" t="n">
+        <v>-0.4738999397227245</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>14</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>0</v>
+      </c>
+      <c r="G523" t="n">
+        <v>0</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0</v>
+      </c>
+      <c r="J523" t="n">
+        <v>0</v>
+      </c>
+      <c r="K523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>14</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>2586</v>
+      </c>
+      <c r="G524" t="n">
+        <v>1635</v>
+      </c>
+      <c r="H524" t="n">
+        <v>1757</v>
+      </c>
+      <c r="I524" t="n">
+        <v>1091</v>
+      </c>
+      <c r="J524" t="n">
+        <v>2317</v>
+      </c>
+      <c r="K524" t="n">
+        <v>1877.2</v>
+      </c>
+      <c r="L524" t="n">
+        <v>2073.75</v>
+      </c>
+      <c r="M524" t="n">
+        <v>-982.75</v>
+      </c>
+      <c r="N524" t="n">
+        <v>-0.4738999397227245</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>14</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F525" t="n">
+        <v>0.2755</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0.1742</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0.1872</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0.1162</v>
+      </c>
+      <c r="J525" t="n">
+        <v>0.2469</v>
+      </c>
+      <c r="K525" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L525" t="n">
+        <v>0.22095</v>
+      </c>
+      <c r="M525" t="n">
+        <v>-0.10475</v>
+      </c>
+      <c r="N525" t="n">
+        <v>-0.4740891604435392</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>14</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F526" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="G526" t="n">
+        <v>100</v>
+      </c>
+      <c r="H526" t="n">
+        <v>115</v>
+      </c>
+      <c r="I526" t="n">
+        <v>109</v>
+      </c>
+      <c r="J526" t="n">
+        <v>106</v>
+      </c>
+      <c r="K526" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="L526" t="n">
+        <v>104.875</v>
+      </c>
+      <c r="M526" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="N526" t="n">
+        <v>0.0393325387365911</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>14</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G527" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H527" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I527" t="n">
+        <v>6</v>
+      </c>
+      <c r="J527" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K527" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="L527" t="n">
+        <v>5.825</v>
+      </c>
+      <c r="M527" t="n">
+        <v>0.1749999999999998</v>
+      </c>
+      <c r="N527" t="n">
+        <v>0.0300429184549355</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>14</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F528" t="n">
+        <v>279.9</v>
+      </c>
+      <c r="G528" t="n">
+        <v>300</v>
+      </c>
+      <c r="H528" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="I528" t="n">
+        <v>213.2</v>
+      </c>
+      <c r="J528" t="n">
+        <v>250</v>
+      </c>
+      <c r="K528" t="n">
+        <v>268.12</v>
+      </c>
+      <c r="L528" t="n">
+        <v>281.85</v>
+      </c>
+      <c r="M528" t="n">
+        <v>-68.65000000000003</v>
+      </c>
+      <c r="N528" t="n">
+        <v>-0.2435692744367572</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>14</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>1</v>
+      </c>
+      <c r="G529" t="n">
+        <v>1</v>
+      </c>
+      <c r="H529" t="n">
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0</v>
+      </c>
+      <c r="K529" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L529" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M529" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="N529" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>14</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F530" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G530" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H530" t="n">
+        <v>14500</v>
+      </c>
+      <c r="I530" t="n">
+        <v>8250</v>
+      </c>
+      <c r="J530" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K530" t="n">
+        <v>10350</v>
+      </c>
+      <c r="L530" t="n">
+        <v>10875</v>
+      </c>
+      <c r="M530" t="n">
+        <v>-2625</v>
+      </c>
+      <c r="N530" t="n">
+        <v>-0.2413793103448276</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>14</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G531" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H531" t="n">
+        <v>17000</v>
+      </c>
+      <c r="I531" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J531" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K531" t="n">
+        <v>14400</v>
+      </c>
+      <c r="L531" t="n">
+        <v>15750</v>
+      </c>
+      <c r="M531" t="n">
+        <v>-6750</v>
+      </c>
+      <c r="N531" t="n">
+        <v>-0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>14</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>0</v>
+      </c>
+      <c r="G532" t="n">
+        <v>85</v>
+      </c>
+      <c r="H532" t="n">
+        <v>50</v>
+      </c>
+      <c r="I532" t="n">
+        <v>145</v>
+      </c>
+      <c r="J532" t="n">
+        <v>215</v>
+      </c>
+      <c r="K532" t="n">
+        <v>99</v>
+      </c>
+      <c r="L532" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="M532" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="N532" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>14</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F533" t="n">
+        <v>64</v>
+      </c>
+      <c r="G533" t="n">
+        <v>73</v>
+      </c>
+      <c r="H533" t="n">
+        <v>80</v>
+      </c>
+      <c r="I533" t="n">
+        <v>78</v>
+      </c>
+      <c r="J533" t="n">
+        <v>84</v>
+      </c>
+      <c r="K533" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="L533" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="M533" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N533" t="n">
+        <v>0.0365448504983388</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>14</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F534" t="n">
+        <v>511</v>
+      </c>
+      <c r="G534" t="n">
+        <v>575</v>
+      </c>
+      <c r="H534" t="n">
+        <v>505</v>
+      </c>
+      <c r="I534" t="n">
+        <v>230</v>
+      </c>
+      <c r="J534" t="n">
+        <v>419</v>
+      </c>
+      <c r="K534" t="n">
+        <v>448</v>
+      </c>
+      <c r="L534" t="n">
+        <v>502.5</v>
+      </c>
+      <c r="M534" t="n">
+        <v>-272.5</v>
+      </c>
+      <c r="N534" t="n">
+        <v>-0.5422885572139303</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>14</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>511</v>
+      </c>
+      <c r="G535" t="n">
+        <v>575</v>
+      </c>
+      <c r="H535" t="n">
+        <v>505</v>
+      </c>
+      <c r="I535" t="n">
+        <v>230</v>
+      </c>
+      <c r="J535" t="n">
+        <v>419</v>
+      </c>
+      <c r="K535" t="n">
+        <v>448</v>
+      </c>
+      <c r="L535" t="n">
+        <v>502.5</v>
+      </c>
+      <c r="M535" t="n">
+        <v>-272.5</v>
+      </c>
+      <c r="N535" t="n">
+        <v>-0.5422885572139303</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>14</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F536" t="n">
+        <v>0.2281</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.2567</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.2254</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.1027</v>
+      </c>
+      <c r="J536" t="n">
+        <v>0.1871</v>
+      </c>
+      <c r="K536" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L536" t="n">
+        <v>0.224325</v>
+      </c>
+      <c r="M536" t="n">
+        <v>-0.121625</v>
+      </c>
+      <c r="N536" t="n">
+        <v>-0.542182101861139</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>14</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F537" t="n">
+        <v>0</v>
+      </c>
+      <c r="G537" t="n">
+        <v>45</v>
+      </c>
+      <c r="H537" t="n">
+        <v>75</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0</v>
+      </c>
+      <c r="J537" t="n">
+        <v>40</v>
+      </c>
+      <c r="K537" t="n">
+        <v>32</v>
+      </c>
+      <c r="L537" t="n">
+        <v>40</v>
+      </c>
+      <c r="M537" t="n">
+        <v>-40</v>
+      </c>
+      <c r="N537" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>14</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F538" t="n">
+        <v>0</v>
+      </c>
+      <c r="G538" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H538" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0</v>
+      </c>
+      <c r="J538" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K538" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L538" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M538" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="N538" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>14</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F539" t="n">
+        <v>0</v>
+      </c>
+      <c r="G539" t="n">
+        <v>536</v>
+      </c>
+      <c r="H539" t="n">
+        <v>779</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0</v>
+      </c>
+      <c r="J539" t="n">
+        <v>599</v>
+      </c>
+      <c r="K539" t="n">
+        <v>382.8</v>
+      </c>
+      <c r="L539" t="n">
+        <v>478.5</v>
+      </c>
+      <c r="M539" t="n">
+        <v>-478.5</v>
+      </c>
+      <c r="N539" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>14</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F540" t="n">
+        <v>0</v>
+      </c>
+      <c r="G540" t="n">
+        <v>536</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0</v>
+      </c>
+      <c r="J540" t="n">
+        <v>599</v>
+      </c>
+      <c r="K540" t="n">
+        <v>227</v>
+      </c>
+      <c r="L540" t="n">
+        <v>283.75</v>
+      </c>
+      <c r="M540" t="n">
+        <v>-283.75</v>
+      </c>
+      <c r="N540" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>14</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Europe-Africa</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>0</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0</v>
+      </c>
+      <c r="J541" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="K541" t="n">
+        <v>0.1498</v>
+      </c>
+      <c r="L541" t="n">
+        <v>0.18725</v>
+      </c>
+      <c r="M541" t="n">
+        <v>-0.18725</v>
+      </c>
+      <c r="N541" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>14</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F542" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="G542" t="n">
+        <v>61</v>
+      </c>
+      <c r="H542" t="n">
+        <v>72</v>
+      </c>
+      <c r="I542" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="J542" t="n">
+        <v>65</v>
+      </c>
+      <c r="K542" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="L542" t="n">
+        <v>64.125</v>
+      </c>
+      <c r="M542" t="n">
+        <v>-2.625</v>
+      </c>
+      <c r="N542" t="n">
+        <v>-0.0409356725146198</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>14</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>4</v>
+      </c>
+      <c r="G543" t="n">
+        <v>4</v>
+      </c>
+      <c r="H543" t="n">
+        <v>3</v>
+      </c>
+      <c r="I543" t="n">
+        <v>4</v>
+      </c>
+      <c r="J543" t="n">
+        <v>5</v>
+      </c>
+      <c r="K543" t="n">
+        <v>4</v>
+      </c>
+      <c r="L543" t="n">
+        <v>4</v>
+      </c>
+      <c r="M543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>14</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G544" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H544" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I544" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J544" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K544" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L544" t="n">
+        <v>5.824999999999999</v>
+      </c>
+      <c r="M544" t="n">
+        <v>0.075000000000001</v>
+      </c>
+      <c r="N544" t="n">
+        <v>0.0128755364806868</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>14</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F545" t="n">
+        <v>345.4</v>
+      </c>
+      <c r="G545" t="n">
+        <v>299</v>
+      </c>
+      <c r="H545" t="n">
+        <v>298.6</v>
+      </c>
+      <c r="I545" t="n">
+        <v>200</v>
+      </c>
+      <c r="J545" t="n">
+        <v>250</v>
+      </c>
+      <c r="K545" t="n">
+        <v>278.6</v>
+      </c>
+      <c r="L545" t="n">
+        <v>298.25</v>
+      </c>
+      <c r="M545" t="n">
+        <v>-98.25</v>
+      </c>
+      <c r="N545" t="n">
+        <v>-0.3294216261525566</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>14</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F546" t="n">
+        <v>3</v>
+      </c>
+      <c r="G546" t="n">
+        <v>2</v>
+      </c>
+      <c r="H546" t="n">
+        <v>2</v>
+      </c>
+      <c r="I546" t="n">
+        <v>2</v>
+      </c>
+      <c r="J546" t="n">
+        <v>2</v>
+      </c>
+      <c r="K546" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L546" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M546" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N546" t="n">
+        <v>-0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>14</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G547" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H547" t="n">
+        <v>7500</v>
+      </c>
+      <c r="I547" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J547" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K547" t="n">
+        <v>5300</v>
+      </c>
+      <c r="L547" t="n">
+        <v>5125</v>
+      </c>
+      <c r="M547" t="n">
+        <v>875</v>
+      </c>
+      <c r="N547" t="n">
+        <v>0.1707317073170731</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>14</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F548" t="n">
+        <v>1646</v>
+      </c>
+      <c r="G548" t="n">
+        <v>538</v>
+      </c>
+      <c r="H548" t="n">
+        <v>1350</v>
+      </c>
+      <c r="I548" t="n">
+        <v>4460</v>
+      </c>
+      <c r="J548" t="n">
+        <v>2586</v>
+      </c>
+      <c r="K548" t="n">
+        <v>2116</v>
+      </c>
+      <c r="L548" t="n">
+        <v>1530</v>
+      </c>
+      <c r="M548" t="n">
+        <v>2930</v>
+      </c>
+      <c r="N548" t="n">
+        <v>1.915032679738562</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>14</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F549" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G549" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H549" t="n">
+        <v>11000</v>
+      </c>
+      <c r="I549" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J549" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K549" t="n">
+        <v>12200</v>
+      </c>
+      <c r="L549" t="n">
+        <v>11500</v>
+      </c>
+      <c r="M549" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N549" t="n">
+        <v>0.3043478260869565</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>14</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F550" t="n">
+        <v>0</v>
+      </c>
+      <c r="G550" t="n">
+        <v>60</v>
+      </c>
+      <c r="H550" t="n">
+        <v>60</v>
+      </c>
+      <c r="I550" t="n">
+        <v>155</v>
+      </c>
+      <c r="J550" t="n">
+        <v>235</v>
+      </c>
+      <c r="K550" t="n">
+        <v>102</v>
+      </c>
+      <c r="L550" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="M550" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="N550" t="n">
+        <v>0.7464788732394366</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>14</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F551" t="n">
+        <v>64</v>
+      </c>
+      <c r="G551" t="n">
+        <v>73</v>
+      </c>
+      <c r="H551" t="n">
+        <v>80</v>
+      </c>
+      <c r="I551" t="n">
+        <v>78</v>
+      </c>
+      <c r="J551" t="n">
+        <v>84</v>
+      </c>
+      <c r="K551" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="L551" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="M551" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N551" t="n">
+        <v>0.0365448504983388</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>14</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F552" t="n">
+        <v>1657</v>
+      </c>
+      <c r="G552" t="n">
+        <v>1059</v>
+      </c>
+      <c r="H552" t="n">
+        <v>1001</v>
+      </c>
+      <c r="I552" t="n">
+        <v>2590</v>
+      </c>
+      <c r="J552" t="n">
+        <v>2084</v>
+      </c>
+      <c r="K552" t="n">
+        <v>1678.2</v>
+      </c>
+      <c r="L552" t="n">
+        <v>1450.25</v>
+      </c>
+      <c r="M552" t="n">
+        <v>1139.75</v>
+      </c>
+      <c r="N552" t="n">
+        <v>0.7858989829339769</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>14</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F553" t="n">
+        <v>0</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0</v>
+      </c>
+      <c r="J553" t="n">
+        <v>0</v>
+      </c>
+      <c r="K553" t="n">
+        <v>0</v>
+      </c>
+      <c r="L553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>14</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F554" t="n">
+        <v>1657</v>
+      </c>
+      <c r="G554" t="n">
+        <v>1059</v>
+      </c>
+      <c r="H554" t="n">
+        <v>1001</v>
+      </c>
+      <c r="I554" t="n">
+        <v>2590</v>
+      </c>
+      <c r="J554" t="n">
+        <v>2084</v>
+      </c>
+      <c r="K554" t="n">
+        <v>1678.2</v>
+      </c>
+      <c r="L554" t="n">
+        <v>1450.25</v>
+      </c>
+      <c r="M554" t="n">
+        <v>1139.75</v>
+      </c>
+      <c r="N554" t="n">
+        <v>0.7858989829339769</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>14</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F555" t="n">
+        <v>0.1975</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.1262</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0.1193</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0.3087</v>
+      </c>
+      <c r="J555" t="n">
+        <v>0.2484</v>
+      </c>
+      <c r="K555" t="n">
+        <v>0.20002</v>
+      </c>
+      <c r="L555" t="n">
+        <v>0.17285</v>
+      </c>
+      <c r="M555" t="n">
+        <v>0.1358499999999999</v>
+      </c>
+      <c r="N555" t="n">
+        <v>0.7859415678333813</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>14</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="G556" t="n">
+        <v>90</v>
+      </c>
+      <c r="H556" t="n">
+        <v>105</v>
+      </c>
+      <c r="I556" t="n">
+        <v>100</v>
+      </c>
+      <c r="J556" t="n">
+        <v>101</v>
+      </c>
+      <c r="K556" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="L556" t="n">
+        <v>96.125</v>
+      </c>
+      <c r="M556" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="N556" t="n">
+        <v>0.0403120936280884</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>14</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F557" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G557" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H557" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I557" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J557" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K557" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L557" t="n">
+        <v>5.824999999999999</v>
+      </c>
+      <c r="M557" t="n">
+        <v>0.075000000000001</v>
+      </c>
+      <c r="N557" t="n">
+        <v>0.0128755364806868</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>14</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F558" t="n">
+        <v>345.4</v>
+      </c>
+      <c r="G558" t="n">
+        <v>299</v>
+      </c>
+      <c r="H558" t="n">
+        <v>298.6</v>
+      </c>
+      <c r="I558" t="n">
+        <v>200</v>
+      </c>
+      <c r="J558" t="n">
+        <v>250</v>
+      </c>
+      <c r="K558" t="n">
+        <v>278.6</v>
+      </c>
+      <c r="L558" t="n">
+        <v>298.25</v>
+      </c>
+      <c r="M558" t="n">
+        <v>-98.25</v>
+      </c>
+      <c r="N558" t="n">
+        <v>-0.3294216261525566</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>14</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>1</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0</v>
+      </c>
+      <c r="H559" t="n">
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>1</v>
+      </c>
+      <c r="J559" t="n">
+        <v>0</v>
+      </c>
+      <c r="K559" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L559" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M559" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>14</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G560" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H560" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I560" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J560" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K560" t="n">
+        <v>7200</v>
+      </c>
+      <c r="L560" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M560" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N560" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>14</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G561" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H561" t="n">
+        <v>11000</v>
+      </c>
+      <c r="I561" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J561" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K561" t="n">
+        <v>12200</v>
+      </c>
+      <c r="L561" t="n">
+        <v>11500</v>
+      </c>
+      <c r="M561" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N561" t="n">
+        <v>0.3043478260869565</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>14</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>0</v>
+      </c>
+      <c r="G562" t="n">
+        <v>60</v>
+      </c>
+      <c r="H562" t="n">
+        <v>60</v>
+      </c>
+      <c r="I562" t="n">
+        <v>155</v>
+      </c>
+      <c r="J562" t="n">
+        <v>235</v>
+      </c>
+      <c r="K562" t="n">
+        <v>102</v>
+      </c>
+      <c r="L562" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="M562" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="N562" t="n">
+        <v>0.7464788732394366</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>14</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>64</v>
+      </c>
+      <c r="G563" t="n">
+        <v>73</v>
+      </c>
+      <c r="H563" t="n">
+        <v>80</v>
+      </c>
+      <c r="I563" t="n">
+        <v>78</v>
+      </c>
+      <c r="J563" t="n">
+        <v>84</v>
+      </c>
+      <c r="K563" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="L563" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="M563" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N563" t="n">
+        <v>0.0365448504983388</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>14</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>526</v>
+      </c>
+      <c r="G564" t="n">
+        <v>252</v>
+      </c>
+      <c r="H564" t="n">
+        <v>365</v>
+      </c>
+      <c r="I564" t="n">
+        <v>453</v>
+      </c>
+      <c r="J564" t="n">
+        <v>389</v>
+      </c>
+      <c r="K564" t="n">
+        <v>397</v>
+      </c>
+      <c r="L564" t="n">
+        <v>383</v>
+      </c>
+      <c r="M564" t="n">
+        <v>70</v>
+      </c>
+      <c r="N564" t="n">
+        <v>0.1827676240208877</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>14</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>526</v>
+      </c>
+      <c r="G565" t="n">
+        <v>252</v>
+      </c>
+      <c r="H565" t="n">
+        <v>365</v>
+      </c>
+      <c r="I565" t="n">
+        <v>453</v>
+      </c>
+      <c r="J565" t="n">
+        <v>389</v>
+      </c>
+      <c r="K565" t="n">
+        <v>397</v>
+      </c>
+      <c r="L565" t="n">
+        <v>383</v>
+      </c>
+      <c r="M565" t="n">
+        <v>70</v>
+      </c>
+      <c r="N565" t="n">
+        <v>0.1827676240208877</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>14</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0.1839</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0.2282</v>
+      </c>
+      <c r="J566" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="K566" t="n">
+        <v>0.20002</v>
+      </c>
+      <c r="L566" t="n">
+        <v>0.192975</v>
+      </c>
+      <c r="M566" t="n">
+        <v>0.0352249999999999</v>
+      </c>
+      <c r="N566" t="n">
+        <v>0.1825365980049228</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>14</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>0</v>
+      </c>
+      <c r="G567" t="n">
+        <v>45</v>
+      </c>
+      <c r="H567" t="n">
+        <v>71</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0</v>
+      </c>
+      <c r="J567" t="n">
+        <v>35</v>
+      </c>
+      <c r="K567" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="L567" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="M567" t="n">
+        <v>-37.75</v>
+      </c>
+      <c r="N567" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>14</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>0</v>
+      </c>
+      <c r="G568" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H568" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0</v>
+      </c>
+      <c r="J568" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K568" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L568" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M568" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="N568" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>14</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>0</v>
+      </c>
+      <c r="G569" t="n">
+        <v>573</v>
+      </c>
+      <c r="H569" t="n">
+        <v>966</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0</v>
+      </c>
+      <c r="J569" t="n">
+        <v>642</v>
+      </c>
+      <c r="K569" t="n">
+        <v>436.2</v>
+      </c>
+      <c r="L569" t="n">
+        <v>545.25</v>
+      </c>
+      <c r="M569" t="n">
+        <v>-545.25</v>
+      </c>
+      <c r="N569" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>14</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>0</v>
+      </c>
+      <c r="G570" t="n">
+        <v>573</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0</v>
+      </c>
+      <c r="J570" t="n">
+        <v>642</v>
+      </c>
+      <c r="K570" t="n">
+        <v>243</v>
+      </c>
+      <c r="L570" t="n">
+        <v>303.75</v>
+      </c>
+      <c r="M570" t="n">
+        <v>-303.75</v>
+      </c>
+      <c r="N570" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>14</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Asia-Pacifc</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>0</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0</v>
+      </c>
+      <c r="J571" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="K571" t="n">
+        <v>0.1496</v>
+      </c>
+      <c r="L571" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="M571" t="n">
+        <v>-0.187</v>
+      </c>
+      <c r="N571" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>14</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F572" t="n">
+        <v>65</v>
+      </c>
+      <c r="G572" t="n">
+        <v>67</v>
+      </c>
+      <c r="H572" t="n">
+        <v>72</v>
+      </c>
+      <c r="I572" t="n">
+        <v>66</v>
+      </c>
+      <c r="J572" t="n">
+        <v>70</v>
+      </c>
+      <c r="K572" t="n">
+        <v>68</v>
+      </c>
+      <c r="L572" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M572" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="N572" t="n">
+        <v>-0.0364963503649635</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>14</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>5</v>
+      </c>
+      <c r="G573" t="n">
+        <v>6</v>
+      </c>
+      <c r="H573" t="n">
+        <v>3</v>
+      </c>
+      <c r="I573" t="n">
+        <v>4</v>
+      </c>
+      <c r="J573" t="n">
+        <v>5</v>
+      </c>
+      <c r="K573" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L573" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M573" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="N573" t="n">
+        <v>-0.1578947368421052</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>14</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F574" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G574" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H574" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I574" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J574" t="n">
+        <v>6</v>
+      </c>
+      <c r="K574" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="L574" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="M574" t="n">
+        <v>0.3250000000000002</v>
+      </c>
+      <c r="N574" t="n">
+        <v>0.0553191489361702</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>14</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>203.4</v>
+      </c>
+      <c r="G575" t="n">
+        <v>300</v>
+      </c>
+      <c r="H575" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="I575" t="n">
+        <v>203.6</v>
+      </c>
+      <c r="J575" t="n">
+        <v>250</v>
+      </c>
+      <c r="K575" t="n">
+        <v>236.38</v>
+      </c>
+      <c r="L575" t="n">
+        <v>244.575</v>
+      </c>
+      <c r="M575" t="n">
+        <v>-40.975</v>
+      </c>
+      <c r="N575" t="n">
+        <v>-0.1675355208013901</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>14</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
+        </is>
+      </c>
+      <c r="F576" t="n">
+        <v>2</v>
+      </c>
+      <c r="G576" t="n">
+        <v>2</v>
+      </c>
+      <c r="H576" t="n">
+        <v>2</v>
+      </c>
+      <c r="I576" t="n">
+        <v>2</v>
+      </c>
+      <c r="J576" t="n">
+        <v>3</v>
+      </c>
+      <c r="K576" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L576" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M576" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N576" t="n">
+        <v>-0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>14</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G577" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H577" t="n">
+        <v>7500</v>
+      </c>
+      <c r="I577" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J577" t="n">
+        <v>5500</v>
+      </c>
+      <c r="K577" t="n">
+        <v>5800</v>
+      </c>
+      <c r="L577" t="n">
+        <v>5250</v>
+      </c>
+      <c r="M577" t="n">
+        <v>2750</v>
+      </c>
+      <c r="N577" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>14</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Outlets</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>1498</v>
+      </c>
+      <c r="G578" t="n">
+        <v>700</v>
+      </c>
+      <c r="H578" t="n">
+        <v>1037</v>
+      </c>
+      <c r="I578" t="n">
+        <v>3748</v>
+      </c>
+      <c r="J578" t="n">
+        <v>1344</v>
+      </c>
+      <c r="K578" t="n">
+        <v>1665.4</v>
+      </c>
+      <c r="L578" t="n">
+        <v>1144.75</v>
+      </c>
+      <c r="M578" t="n">
+        <v>2603.25</v>
+      </c>
+      <c r="N578" t="n">
+        <v>2.274077309456213</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>14</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G579" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H579" t="n">
+        <v>11000</v>
+      </c>
+      <c r="I579" t="n">
+        <v>12000</v>
+      </c>
+      <c r="J579" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K579" t="n">
+        <v>12100</v>
+      </c>
+      <c r="L579" t="n">
+        <v>12125</v>
+      </c>
+      <c r="M579" t="n">
+        <v>-125</v>
+      </c>
+      <c r="N579" t="n">
+        <v>-0.0103092783505154</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>14</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>0</v>
+      </c>
+      <c r="G580" t="n">
+        <v>100</v>
+      </c>
+      <c r="H580" t="n">
+        <v>95</v>
+      </c>
+      <c r="I580" t="n">
+        <v>100</v>
+      </c>
+      <c r="J580" t="n">
+        <v>195</v>
+      </c>
+      <c r="K580" t="n">
+        <v>98</v>
+      </c>
+      <c r="L580" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="M580" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N580" t="n">
+        <v>0.0256410256410256</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>14</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>64</v>
+      </c>
+      <c r="G581" t="n">
+        <v>73</v>
+      </c>
+      <c r="H581" t="n">
+        <v>80</v>
+      </c>
+      <c r="I581" t="n">
+        <v>78</v>
+      </c>
+      <c r="J581" t="n">
+        <v>84</v>
+      </c>
+      <c r="K581" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="L581" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="M581" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N581" t="n">
+        <v>0.0365448504983388</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>14</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>1385</v>
+      </c>
+      <c r="G582" t="n">
+        <v>1702</v>
+      </c>
+      <c r="H582" t="n">
+        <v>1159</v>
+      </c>
+      <c r="I582" t="n">
+        <v>2649</v>
+      </c>
+      <c r="J582" t="n">
+        <v>1580</v>
+      </c>
+      <c r="K582" t="n">
+        <v>1695</v>
+      </c>
+      <c r="L582" t="n">
+        <v>1456.5</v>
+      </c>
+      <c r="M582" t="n">
+        <v>1192.5</v>
+      </c>
+      <c r="N582" t="n">
+        <v>0.8187435633367662</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>14</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>0</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0</v>
+      </c>
+      <c r="J583" t="n">
+        <v>0</v>
+      </c>
+      <c r="K583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>14</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>1385</v>
+      </c>
+      <c r="G584" t="n">
+        <v>1702</v>
+      </c>
+      <c r="H584" t="n">
+        <v>1159</v>
+      </c>
+      <c r="I584" t="n">
+        <v>2649</v>
+      </c>
+      <c r="J584" t="n">
+        <v>1580</v>
+      </c>
+      <c r="K584" t="n">
+        <v>1695</v>
+      </c>
+      <c r="L584" t="n">
+        <v>1456.5</v>
+      </c>
+      <c r="M584" t="n">
+        <v>1192.5</v>
+      </c>
+      <c r="N584" t="n">
+        <v>0.8187435633367662</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>14</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>0.1634</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0.2008</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0.1368</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0.3126</v>
+      </c>
+      <c r="J585" t="n">
+        <v>0.1864</v>
+      </c>
+      <c r="K585" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L585" t="n">
+        <v>0.17185</v>
+      </c>
+      <c r="M585" t="n">
+        <v>0.14075</v>
+      </c>
+      <c r="N585" t="n">
+        <v>0.819028222286878</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>14</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F586" t="n">
+        <v>92</v>
+      </c>
+      <c r="G586" t="n">
+        <v>100</v>
+      </c>
+      <c r="H586" t="n">
+        <v>105</v>
+      </c>
+      <c r="I586" t="n">
+        <v>105</v>
+      </c>
+      <c r="J586" t="n">
+        <v>104</v>
+      </c>
+      <c r="K586" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="L586" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="M586" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N586" t="n">
+        <v>0.0473815461346633</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>14</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G587" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H587" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I587" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J587" t="n">
+        <v>6</v>
+      </c>
+      <c r="K587" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="L587" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="M587" t="n">
+        <v>0.3250000000000002</v>
+      </c>
+      <c r="N587" t="n">
+        <v>0.0553191489361702</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>14</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model Availability</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>203.4</v>
+      </c>
+      <c r="G588" t="n">
+        <v>300</v>
+      </c>
+      <c r="H588" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="I588" t="n">
+        <v>203.6</v>
+      </c>
+      <c r="J588" t="n">
+        <v>250</v>
+      </c>
+      <c r="K588" t="n">
+        <v>236.38</v>
+      </c>
+      <c r="L588" t="n">
+        <v>244.575</v>
+      </c>
+      <c r="M588" t="n">
+        <v>-40.975</v>
+      </c>
+      <c r="N588" t="n">
+        <v>-0.1675355208013901</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>14</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>C - Marketing</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Free Shipping</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>1</v>
+      </c>
+      <c r="G589" t="n">
+        <v>1</v>
+      </c>
+      <c r="H589" t="n">
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>1</v>
+      </c>
+      <c r="J589" t="n">
+        <v>0</v>
+      </c>
+      <c r="K589" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L589" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M589" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N589" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>14</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F590" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G590" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H590" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I590" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J590" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K590" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L590" t="n">
+        <v>6250</v>
+      </c>
+      <c r="M590" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N590" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>14</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G591" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H591" t="n">
+        <v>11000</v>
+      </c>
+      <c r="I591" t="n">
+        <v>12000</v>
+      </c>
+      <c r="J591" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K591" t="n">
+        <v>12100</v>
+      </c>
+      <c r="L591" t="n">
+        <v>12125</v>
+      </c>
+      <c r="M591" t="n">
+        <v>-125</v>
+      </c>
+      <c r="N591" t="n">
+        <v>-0.0103092783505154</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>14</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>0</v>
+      </c>
+      <c r="G592" t="n">
+        <v>100</v>
+      </c>
+      <c r="H592" t="n">
+        <v>95</v>
+      </c>
+      <c r="I592" t="n">
+        <v>100</v>
+      </c>
+      <c r="J592" t="n">
+        <v>195</v>
+      </c>
+      <c r="K592" t="n">
+        <v>98</v>
+      </c>
+      <c r="L592" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="M592" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N592" t="n">
+        <v>0.0256410256410256</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>14</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>D - Imagen</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>64</v>
+      </c>
+      <c r="G593" t="n">
+        <v>73</v>
+      </c>
+      <c r="H593" t="n">
+        <v>80</v>
+      </c>
+      <c r="I593" t="n">
+        <v>78</v>
+      </c>
+      <c r="J593" t="n">
+        <v>84</v>
+      </c>
+      <c r="K593" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="L593" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="M593" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N593" t="n">
+        <v>0.0365448504983388</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>14</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F594" t="n">
+        <v>382</v>
+      </c>
+      <c r="G594" t="n">
+        <v>455</v>
+      </c>
+      <c r="H594" t="n">
+        <v>375</v>
+      </c>
+      <c r="I594" t="n">
+        <v>399</v>
+      </c>
+      <c r="J594" t="n">
+        <v>344</v>
+      </c>
+      <c r="K594" t="n">
+        <v>391</v>
+      </c>
+      <c r="L594" t="n">
+        <v>389</v>
+      </c>
+      <c r="M594" t="n">
+        <v>10</v>
+      </c>
+      <c r="N594" t="n">
+        <v>0.0257069408740359</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>14</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>382</v>
+      </c>
+      <c r="G595" t="n">
+        <v>455</v>
+      </c>
+      <c r="H595" t="n">
+        <v>375</v>
+      </c>
+      <c r="I595" t="n">
+        <v>399</v>
+      </c>
+      <c r="J595" t="n">
+        <v>344</v>
+      </c>
+      <c r="K595" t="n">
+        <v>391</v>
+      </c>
+      <c r="L595" t="n">
+        <v>389</v>
+      </c>
+      <c r="M595" t="n">
+        <v>10</v>
+      </c>
+      <c r="N595" t="n">
+        <v>0.0257069408740359</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>14</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+        </is>
+      </c>
+      <c r="F596" t="n">
+        <v>0.1954</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0.2327</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0.1918</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0.2041</v>
+      </c>
+      <c r="J596" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="K596" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L596" t="n">
+        <v>0.198975</v>
+      </c>
+      <c r="M596" t="n">
+        <v>0.0051249999999999</v>
+      </c>
+      <c r="N596" t="n">
+        <v>0.0257570046488251</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>14</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>A - Precio</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F597" t="n">
+        <v>0</v>
+      </c>
+      <c r="G597" t="n">
+        <v>48</v>
+      </c>
+      <c r="H597" t="n">
+        <v>71</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0</v>
+      </c>
+      <c r="J597" t="n">
+        <v>40</v>
+      </c>
+      <c r="K597" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="L597" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="M597" t="n">
+        <v>-39.75</v>
+      </c>
+      <c r="N597" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>14</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>B - Calidad</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F598" t="n">
+        <v>0</v>
+      </c>
+      <c r="G598" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H598" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0</v>
+      </c>
+      <c r="J598" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K598" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L598" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M598" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="N598" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>14</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F599" t="n">
+        <v>0</v>
+      </c>
+      <c r="G599" t="n">
+        <v>619</v>
+      </c>
+      <c r="H599" t="n">
+        <v>193</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0</v>
+      </c>
+      <c r="J599" t="n">
+        <v>537</v>
+      </c>
+      <c r="K599" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="L599" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="M599" t="n">
+        <v>-337.25</v>
+      </c>
+      <c r="N599" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>14</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>E - Volumen</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F600" t="n">
+        <v>0</v>
+      </c>
+      <c r="G600" t="n">
+        <v>619</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0</v>
+      </c>
+      <c r="J600" t="n">
+        <v>537</v>
+      </c>
+      <c r="K600" t="n">
+        <v>231.2</v>
+      </c>
+      <c r="L600" t="n">
+        <v>289</v>
+      </c>
+      <c r="M600" t="n">
+        <v>-289</v>
+      </c>
+      <c r="N600" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>14</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>F - Cuota</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+        </is>
+      </c>
+      <c r="F601" t="n">
+        <v>0</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="n">
+        <v>0</v>
+      </c>
+      <c r="J601" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K601" t="n">
+        <v>0.1422</v>
+      </c>
+      <c r="L601" t="n">
+        <v>0.17775</v>
+      </c>
+      <c r="M601" t="n">
+        <v>-0.17775</v>
+      </c>
+      <c r="N601" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
